--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1875133319434212</v>
+        <v>0.1875133319433928</v>
       </c>
       <c r="D2">
-        <v>0.1310624866777204</v>
+        <v>0.1310624866776067</v>
       </c>
       <c r="E2">
         <v>1.886568947146003</v>
       </c>
       <c r="F2">
-        <v>3.586111840009352</v>
+        <v>3.586111840009409</v>
       </c>
       <c r="G2">
-        <v>3.005791020350244</v>
+        <v>3.005791020350287</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -456,16 +456,16 @@
         <v>0.1551559328809446</v>
       </c>
       <c r="D3">
-        <v>0.08655567119600605</v>
+        <v>0.08655567119619434</v>
       </c>
       <c r="E3">
-        <v>1.535264570242532</v>
+        <v>1.535264570242546</v>
       </c>
       <c r="F3">
-        <v>2.756705474729259</v>
+        <v>2.756705474729245</v>
       </c>
       <c r="G3">
-        <v>2.286567730433873</v>
+        <v>2.286567730433845</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.50936815803965</v>
+        <v>20.50936815803954</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1370220428780868</v>
+        <v>0.1370220428783142</v>
       </c>
       <c r="D4">
-        <v>0.06546203494502123</v>
+        <v>0.06546203494495018</v>
       </c>
       <c r="E4">
-        <v>1.343495206099547</v>
+        <v>1.343495206099576</v>
       </c>
       <c r="F4">
-        <v>2.330768582881788</v>
+        <v>2.330768582881774</v>
       </c>
       <c r="G4">
-        <v>1.92018167673676</v>
+        <v>1.920181676736732</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.33489713609106</v>
+        <v>18.33489713609112</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1299496645791862</v>
+        <v>0.1299496645792999</v>
       </c>
       <c r="D5">
-        <v>0.05799250756017216</v>
+        <v>0.05799250756027163</v>
       </c>
       <c r="E5">
-        <v>1.269609450410798</v>
+        <v>1.269609450410812</v>
       </c>
       <c r="F5">
-        <v>2.172476272044094</v>
+        <v>2.172476272044079</v>
       </c>
       <c r="G5">
-        <v>1.784653403674511</v>
+        <v>1.784653403674497</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.47371014974073</v>
+        <v>17.47371014974061</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1287917837940569</v>
+        <v>0.1287917837938721</v>
       </c>
       <c r="D6">
-        <v>0.05681045221321668</v>
+        <v>0.0568104522131172</v>
       </c>
       <c r="E6">
-        <v>1.257559443242641</v>
+        <v>1.257559443242613</v>
       </c>
       <c r="F6">
-        <v>2.146987963138969</v>
+        <v>2.146987963138955</v>
       </c>
       <c r="G6">
-        <v>1.762866312137731</v>
+        <v>1.762866312137703</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1369255031762435</v>
+        <v>0.1369255031762577</v>
       </c>
       <c r="D7">
-        <v>0.06535719702200993</v>
+        <v>0.06535719702192111</v>
       </c>
       <c r="E7">
-        <v>1.342483321741383</v>
+        <v>1.342483321741369</v>
       </c>
       <c r="F7">
-        <v>2.328577880628259</v>
+        <v>2.328577880628217</v>
       </c>
       <c r="G7">
-        <v>1.918303500111151</v>
+        <v>1.918303500111136</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.32319221168456</v>
+        <v>18.32319221168467</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1759088206223822</v>
+        <v>0.1759088206225954</v>
       </c>
       <c r="D8">
-        <v>0.1140908875198861</v>
+        <v>0.1140908875200992</v>
       </c>
       <c r="E8">
-        <v>1.759146129765611</v>
+        <v>1.759146129765583</v>
       </c>
       <c r="F8">
-        <v>3.27860417780461</v>
+        <v>3.278604177804482</v>
       </c>
       <c r="G8">
-        <v>2.738351762323646</v>
+        <v>2.738351762323532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.94076738363611</v>
+        <v>22.94076738363589</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D9">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E9">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F9">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G9">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D10">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E10">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F10">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G10">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D11">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E11">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F11">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G11">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D12">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E12">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F12">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G12">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D13">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E13">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F13">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G13">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D14">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E14">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F14">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G14">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D15">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E15">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F15">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G15">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D16">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E16">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F16">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G16">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D17">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E17">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F17">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G17">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D18">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E18">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F18">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G18">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D19">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E19">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F19">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G19">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D20">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E20">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F20">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G20">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D21">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E21">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F21">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G21">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D22">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E22">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F22">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G22">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D23">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E23">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F23">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G23">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D24">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E24">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F24">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G24">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2764171807390738</v>
+        <v>0.2764171807386617</v>
       </c>
       <c r="D25">
-        <v>0.2994824949295776</v>
+        <v>0.2994824949295705</v>
       </c>
       <c r="E25">
-        <v>2.929788426438762</v>
+        <v>2.92978842643879</v>
       </c>
       <c r="F25">
-        <v>6.309340722266313</v>
+        <v>6.309340722266256</v>
       </c>
       <c r="G25">
-        <v>5.403401522851297</v>
+        <v>5.403401522851269</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>33.90521579790618</v>
+        <v>33.90521579790612</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1875133319433928</v>
+        <v>0.1875133319434212</v>
       </c>
       <c r="D2">
-        <v>0.1310624866776067</v>
+        <v>0.1310624866777204</v>
       </c>
       <c r="E2">
         <v>1.886568947146003</v>
       </c>
       <c r="F2">
-        <v>3.586111840009409</v>
+        <v>3.586111840009352</v>
       </c>
       <c r="G2">
-        <v>3.005791020350287</v>
+        <v>3.005791020350244</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -456,16 +456,16 @@
         <v>0.1551559328809446</v>
       </c>
       <c r="D3">
-        <v>0.08655567119619434</v>
+        <v>0.08655567119600605</v>
       </c>
       <c r="E3">
-        <v>1.535264570242546</v>
+        <v>1.535264570242532</v>
       </c>
       <c r="F3">
-        <v>2.756705474729245</v>
+        <v>2.756705474729259</v>
       </c>
       <c r="G3">
-        <v>2.286567730433845</v>
+        <v>2.286567730433873</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.50936815803954</v>
+        <v>20.50936815803965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1370220428783142</v>
+        <v>0.1370220428780868</v>
       </c>
       <c r="D4">
-        <v>0.06546203494495018</v>
+        <v>0.06546203494502123</v>
       </c>
       <c r="E4">
-        <v>1.343495206099576</v>
+        <v>1.343495206099547</v>
       </c>
       <c r="F4">
-        <v>2.330768582881774</v>
+        <v>2.330768582881788</v>
       </c>
       <c r="G4">
-        <v>1.920181676736732</v>
+        <v>1.92018167673676</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.33489713609112</v>
+        <v>18.33489713609106</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1299496645792999</v>
+        <v>0.1299496645791862</v>
       </c>
       <c r="D5">
-        <v>0.05799250756027163</v>
+        <v>0.05799250756017216</v>
       </c>
       <c r="E5">
-        <v>1.269609450410812</v>
+        <v>1.269609450410798</v>
       </c>
       <c r="F5">
-        <v>2.172476272044079</v>
+        <v>2.172476272044094</v>
       </c>
       <c r="G5">
-        <v>1.784653403674497</v>
+        <v>1.784653403674511</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.47371014974061</v>
+        <v>17.47371014974073</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1287917837938721</v>
+        <v>0.1287917837940569</v>
       </c>
       <c r="D6">
-        <v>0.0568104522131172</v>
+        <v>0.05681045221321668</v>
       </c>
       <c r="E6">
-        <v>1.257559443242613</v>
+        <v>1.257559443242641</v>
       </c>
       <c r="F6">
-        <v>2.146987963138955</v>
+        <v>2.146987963138969</v>
       </c>
       <c r="G6">
-        <v>1.762866312137703</v>
+        <v>1.762866312137731</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1369255031762577</v>
+        <v>0.1369255031762435</v>
       </c>
       <c r="D7">
-        <v>0.06535719702192111</v>
+        <v>0.06535719702200993</v>
       </c>
       <c r="E7">
-        <v>1.342483321741369</v>
+        <v>1.342483321741383</v>
       </c>
       <c r="F7">
-        <v>2.328577880628217</v>
+        <v>2.328577880628259</v>
       </c>
       <c r="G7">
-        <v>1.918303500111136</v>
+        <v>1.918303500111151</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.32319221168467</v>
+        <v>18.32319221168456</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1759088206225954</v>
+        <v>0.1759088206223822</v>
       </c>
       <c r="D8">
-        <v>0.1140908875200992</v>
+        <v>0.1140908875198861</v>
       </c>
       <c r="E8">
-        <v>1.759146129765583</v>
+        <v>1.759146129765611</v>
       </c>
       <c r="F8">
-        <v>3.278604177804482</v>
+        <v>3.27860417780461</v>
       </c>
       <c r="G8">
-        <v>2.738351762323532</v>
+        <v>2.738351762323646</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.94076738363589</v>
+        <v>22.94076738363611</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D9">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E9">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F9">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G9">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D10">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E10">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F10">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G10">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D11">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E11">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F11">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G11">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D12">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E12">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F12">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G12">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D13">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E13">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F13">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G13">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D14">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E14">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F14">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G14">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D15">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E15">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F15">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G15">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D16">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E16">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F16">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G16">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D17">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E17">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F17">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G17">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D18">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E18">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F18">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G18">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D19">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E19">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F19">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G19">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D20">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E20">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F20">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G20">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D21">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E21">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F21">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G21">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D22">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E22">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F22">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G22">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D23">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E23">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F23">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G23">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D24">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E24">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F24">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G24">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2764171807386617</v>
+        <v>0.2764171807390738</v>
       </c>
       <c r="D25">
-        <v>0.2994824949295705</v>
+        <v>0.2994824949295776</v>
       </c>
       <c r="E25">
-        <v>2.92978842643879</v>
+        <v>2.929788426438762</v>
       </c>
       <c r="F25">
-        <v>6.309340722266256</v>
+        <v>6.309340722266313</v>
       </c>
       <c r="G25">
-        <v>5.403401522851269</v>
+        <v>5.403401522851297</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>33.90521579790612</v>
+        <v>33.90521579790618</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1875133319434212</v>
+        <v>0.1874410424525195</v>
       </c>
       <c r="D2">
-        <v>0.1310624866777204</v>
+        <v>0.1305160932618463</v>
       </c>
       <c r="E2">
-        <v>1.886568947146003</v>
+        <v>1.885732294077982</v>
       </c>
       <c r="F2">
-        <v>3.586111840009352</v>
+        <v>3.577515067594163</v>
       </c>
       <c r="G2">
-        <v>3.005791020350244</v>
+        <v>1.053544284685259</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.945981248376455</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>24.27464758329546</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.2680268661934</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1551559328809446</v>
+        <v>0.1551112861099142</v>
       </c>
       <c r="D3">
-        <v>0.08655567119600605</v>
+        <v>0.08618839922348798</v>
       </c>
       <c r="E3">
-        <v>1.535264570242532</v>
+        <v>1.534767799853839</v>
       </c>
       <c r="F3">
-        <v>2.756705474729259</v>
+        <v>2.750442539895104</v>
       </c>
       <c r="G3">
-        <v>2.286567730433873</v>
+        <v>0.8028140870171683</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.480326317591889</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.50936815803965</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.50517559498832</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1370220428780868</v>
+        <v>0.1369892329703077</v>
       </c>
       <c r="D4">
-        <v>0.06546203494502123</v>
+        <v>0.06517598313834938</v>
       </c>
       <c r="E4">
-        <v>1.343495206099547</v>
+        <v>1.3431374402914</v>
       </c>
       <c r="F4">
-        <v>2.330768582881788</v>
+        <v>2.325606064226619</v>
       </c>
       <c r="G4">
-        <v>1.92018167673676</v>
+        <v>0.6741543259433627</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.243973554487908</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.33489713609106</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.33177056036521</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1299496645791862</v>
+        <v>0.1299208654120463</v>
       </c>
       <c r="D5">
-        <v>0.05799250756017216</v>
+        <v>0.05773483841159077</v>
       </c>
       <c r="E5">
-        <v>1.269609450410798</v>
+        <v>1.269297769495083</v>
       </c>
       <c r="F5">
-        <v>2.172476272044094</v>
+        <v>2.167707860880967</v>
       </c>
       <c r="G5">
-        <v>1.784653403674511</v>
+        <v>0.6263492174345799</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.156748634457301</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.47371014974073</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.470949581345</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1287917837940569</v>
+        <v>0.1287636110013182</v>
       </c>
       <c r="D6">
-        <v>0.05681045221321668</v>
+        <v>0.05655726199411504</v>
       </c>
       <c r="E6">
-        <v>1.257559443242641</v>
+        <v>1.257254910135941</v>
       </c>
       <c r="F6">
-        <v>2.146987963138969</v>
+        <v>2.142282303609477</v>
       </c>
       <c r="G6">
-        <v>1.762866312137731</v>
+        <v>0.6186517510870715</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.142738671294723</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.3319967105981</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.32929355730994</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1369255031762435</v>
+        <v>0.1368927501978305</v>
       </c>
       <c r="D7">
-        <v>0.06535719702200993</v>
+        <v>0.06507154467148624</v>
       </c>
       <c r="E7">
-        <v>1.342483321741383</v>
+        <v>1.342126213831762</v>
       </c>
       <c r="F7">
-        <v>2.328577880628259</v>
+        <v>2.323420868888718</v>
       </c>
       <c r="G7">
-        <v>1.918303500111151</v>
+        <v>0.6734927039016867</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.242763937876873</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.32319221168456</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.320070812317</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1759088206223822</v>
+        <v>0.1758475184542334</v>
       </c>
       <c r="D8">
-        <v>0.1140908875198861</v>
+        <v>0.1136142531547861</v>
       </c>
       <c r="E8">
-        <v>1.759146129765611</v>
+        <v>1.75844694565599</v>
       </c>
       <c r="F8">
-        <v>3.27860417780461</v>
+        <v>3.270904761450311</v>
       </c>
       <c r="G8">
-        <v>2.738351762323646</v>
+        <v>0.9605482198072224</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.772618254999045</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.94076738363611</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.93510321854171</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D9">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E9">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F9">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G9">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D10">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E10">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F10">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G10">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D11">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E11">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F11">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G11">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D12">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E12">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F12">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G12">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D13">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E13">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F13">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G13">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D14">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E14">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F14">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G14">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D15">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E15">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F15">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G15">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D16">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E16">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F16">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G16">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D17">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E17">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F17">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G17">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D18">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E18">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F18">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G18">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D19">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E19">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F19">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G19">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D20">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E20">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F20">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G20">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D21">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E21">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F21">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G21">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D22">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E22">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F22">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G22">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D23">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E23">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F23">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G23">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D24">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E24">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F24">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G24">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2764171807390738</v>
+        <v>0.2761982287844802</v>
       </c>
       <c r="D25">
-        <v>0.2994824949295776</v>
+        <v>0.2980948945632775</v>
       </c>
       <c r="E25">
-        <v>2.929788426438762</v>
+        <v>2.926887076456296</v>
       </c>
       <c r="F25">
-        <v>6.309340722266313</v>
+        <v>6.290427774559703</v>
       </c>
       <c r="G25">
-        <v>5.403401522851297</v>
+        <v>1.879104179220093</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.506340687681956</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>33.90521579790618</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>33.88641986914325</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2818370760652584</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.05515420595659037</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.09083127813244118</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.766897019339126</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.461462880850036</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9161573352773189</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.14615094127155</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.495164541212034</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06103710053861633</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8759928140517417</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.256817304198421</v>
+      </c>
+      <c r="D3">
+        <v>0.04932557208400823</v>
+      </c>
+      <c r="E3">
+        <v>0.0843110943540033</v>
+      </c>
+      <c r="F3">
+        <v>1.670192146618405</v>
+      </c>
+      <c r="G3">
+        <v>1.374053011684182</v>
+      </c>
+      <c r="H3">
+        <v>0.8859719892275137</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.1382155883684959</v>
+      </c>
+      <c r="K3">
+        <v>3.921813801204166</v>
+      </c>
+      <c r="L3">
+        <v>0.05797671936474202</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.9283684382245205</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.2418505065978991</v>
+      </c>
+      <c r="D4">
+        <v>0.04577373338398871</v>
+      </c>
+      <c r="E4">
+        <v>0.08042260820623781</v>
+      </c>
+      <c r="F4">
+        <v>1.614705457144979</v>
+      </c>
+      <c r="G4">
+        <v>1.324007267359718</v>
+      </c>
+      <c r="H4">
+        <v>0.869416449473249</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.1335951385308434</v>
+      </c>
+      <c r="K4">
+        <v>3.573643982138265</v>
+      </c>
+      <c r="L4">
+        <v>0.05616139756005722</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.961939934329255</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2358426937827858</v>
+      </c>
+      <c r="D5">
+        <v>0.04433237830569681</v>
+      </c>
+      <c r="E5">
+        <v>0.07886486661988812</v>
+      </c>
+      <c r="F5">
+        <v>1.593002671006417</v>
+      </c>
+      <c r="G5">
+        <v>1.304455999066647</v>
+      </c>
+      <c r="H5">
+        <v>0.8631357385548171</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.1317713038941406</v>
+      </c>
+      <c r="K5">
+        <v>3.432608959141987</v>
+      </c>
+      <c r="L5">
+        <v>0.05543677537095348</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.9759650697676108</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.2348503866885636</v>
+      </c>
+      <c r="D6">
+        <v>0.04409338738722823</v>
+      </c>
+      <c r="E6">
+        <v>0.07860776919341816</v>
+      </c>
+      <c r="F6">
+        <v>1.589451864977235</v>
+      </c>
+      <c r="G6">
+        <v>1.301258516683731</v>
+      </c>
+      <c r="H6">
+        <v>0.8621200823305202</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.1314719033434955</v>
+      </c>
+      <c r="K6">
+        <v>3.409237852139086</v>
+      </c>
+      <c r="L6">
+        <v>0.05531734160737045</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.9783144397486083</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.241769123903623</v>
+      </c>
+      <c r="D7">
+        <v>0.04575427120248321</v>
+      </c>
+      <c r="E7">
+        <v>0.08040149385568185</v>
+      </c>
+      <c r="F7">
+        <v>1.614409175923129</v>
+      </c>
+      <c r="G7">
+        <v>1.32374026675194</v>
+      </c>
+      <c r="H7">
+        <v>0.8693298997607144</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.1335703080813673</v>
+      </c>
+      <c r="K7">
+        <v>3.57173866475398</v>
+      </c>
+      <c r="L7">
+        <v>0.05615156490407003</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.9621277010279599</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.273123077912274</v>
+      </c>
+      <c r="D8">
+        <v>0.0531384344726149</v>
+      </c>
+      <c r="E8">
+        <v>0.08855797907214935</v>
+      </c>
+      <c r="F8">
+        <v>1.732702046117026</v>
+      </c>
+      <c r="G8">
+        <v>1.430528849926901</v>
+      </c>
+      <c r="H8">
+        <v>0.9053190000246047</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.1433598582334099</v>
+      </c>
+      <c r="K8">
+        <v>4.296590909818235</v>
+      </c>
+      <c r="L8">
+        <v>0.0599680840059591</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.8937520167476443</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.3381494986514895</v>
+      </c>
+      <c r="D9">
+        <v>0.06786976358725383</v>
+      </c>
+      <c r="E9">
+        <v>0.1055664804739536</v>
+      </c>
+      <c r="F9">
+        <v>1.998985755346581</v>
+      </c>
+      <c r="G9">
+        <v>1.672079027360098</v>
+      </c>
+      <c r="H9">
+        <v>0.9931530811914797</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.1647685426602763</v>
+      </c>
+      <c r="K9">
+        <v>5.75501361663413</v>
+      </c>
+      <c r="L9">
+        <v>0.06800283066184321</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.7714017037697545</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.3887052705672716</v>
+      </c>
+      <c r="D10">
+        <v>0.07890395563366326</v>
+      </c>
+      <c r="E10">
+        <v>0.1188374365785556</v>
+      </c>
+      <c r="F10">
+        <v>2.220832970860883</v>
+      </c>
+      <c r="G10">
+        <v>1.874335419402598</v>
+      </c>
+      <c r="H10">
+        <v>1.070608075756439</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.1821734813160347</v>
+      </c>
+      <c r="K10">
+        <v>6.858811426288469</v>
+      </c>
+      <c r="L10">
+        <v>0.07431057624842907</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.6894655673869217</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.4124645482457652</v>
+      </c>
+      <c r="D11">
+        <v>0.08398422407778838</v>
+      </c>
+      <c r="E11">
+        <v>0.1250824258893815</v>
+      </c>
+      <c r="F11">
+        <v>2.32878095505626</v>
+      </c>
+      <c r="G11">
+        <v>1.973040048669787</v>
+      </c>
+      <c r="H11">
+        <v>1.10925626888357</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.1905380730822088</v>
+      </c>
+      <c r="K11">
+        <v>7.370432090317195</v>
+      </c>
+      <c r="L11">
+        <v>0.07728536140187003</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.6541201078230152</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.4215856752653053</v>
+      </c>
+      <c r="D12">
+        <v>0.08591809072322576</v>
+      </c>
+      <c r="E12">
+        <v>0.1274808406466477</v>
+      </c>
+      <c r="F12">
+        <v>2.370794530794882</v>
+      </c>
+      <c r="G12">
+        <v>2.011503730294294</v>
+      </c>
+      <c r="H12">
+        <v>1.124439467579776</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.1937776053376936</v>
+      </c>
+      <c r="K12">
+        <v>7.565766158181589</v>
+      </c>
+      <c r="L12">
+        <v>0.07842861183992511</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.6410322398876502</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.4196155129756107</v>
+      </c>
+      <c r="D13">
+        <v>0.08550112663184706</v>
+      </c>
+      <c r="E13">
+        <v>0.1269627430891624</v>
+      </c>
+      <c r="F13">
+        <v>2.361693480148844</v>
+      </c>
+      <c r="G13">
+        <v>2.00316945374226</v>
+      </c>
+      <c r="H13">
+        <v>1.121144142530426</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.1930765766482239</v>
+      </c>
+      <c r="K13">
+        <v>7.523622631012415</v>
+      </c>
+      <c r="L13">
+        <v>0.07818161916799227</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.6438374170758969</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.4132123744563785</v>
+      </c>
+      <c r="D14">
+        <v>0.08414311420934695</v>
+      </c>
+      <c r="E14">
+        <v>0.1252790495766973</v>
+      </c>
+      <c r="F14">
+        <v>2.332213900452857</v>
+      </c>
+      <c r="G14">
+        <v>1.976181948855924</v>
+      </c>
+      <c r="H14">
+        <v>1.110494066979044</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.1908030998151276</v>
+      </c>
+      <c r="K14">
+        <v>7.386468981996188</v>
+      </c>
+      <c r="L14">
+        <v>0.07737907143702216</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.6530372954603543</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.4093068758175207</v>
+      </c>
+      <c r="D15">
+        <v>0.08331264746072264</v>
+      </c>
+      <c r="E15">
+        <v>0.1242522267655168</v>
+      </c>
+      <c r="F15">
+        <v>2.314308714161527</v>
+      </c>
+      <c r="G15">
+        <v>1.959796704654366</v>
+      </c>
+      <c r="H15">
+        <v>1.104043757043144</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.1894201574746504</v>
+      </c>
+      <c r="K15">
+        <v>7.302673293215264</v>
+      </c>
+      <c r="L15">
+        <v>0.07688972191981236</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.6587117402467833</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.3871690700069337</v>
+      </c>
+      <c r="D16">
+        <v>0.07857328206925729</v>
+      </c>
+      <c r="E16">
+        <v>0.1184338009342376</v>
+      </c>
+      <c r="F16">
+        <v>2.213930141010295</v>
+      </c>
+      <c r="G16">
+        <v>1.8680298302437</v>
+      </c>
+      <c r="H16">
+        <v>1.068155748814604</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.1816364741138443</v>
+      </c>
+      <c r="K16">
+        <v>6.825585884657414</v>
+      </c>
+      <c r="L16">
+        <v>0.07411842098749588</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.6918158837289283</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.3737930561194673</v>
+      </c>
+      <c r="D17">
+        <v>0.0756823048785833</v>
+      </c>
+      <c r="E17">
+        <v>0.1149201338749535</v>
+      </c>
+      <c r="F17">
+        <v>2.154236120931969</v>
+      </c>
+      <c r="G17">
+        <v>1.813532570273651</v>
+      </c>
+      <c r="H17">
+        <v>1.047052531801342</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.1769811760197939</v>
+      </c>
+      <c r="K17">
+        <v>6.535495406212306</v>
+      </c>
+      <c r="L17">
+        <v>0.07244639517746521</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.712631134614881</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.3661702140181546</v>
+      </c>
+      <c r="D18">
+        <v>0.07402512132854611</v>
+      </c>
+      <c r="E18">
+        <v>0.1129184978231628</v>
+      </c>
+      <c r="F18">
+        <v>2.120554971218482</v>
+      </c>
+      <c r="G18">
+        <v>1.782809395350853</v>
+      </c>
+      <c r="H18">
+        <v>1.035232036485723</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.1743451311798481</v>
+      </c>
+      <c r="K18">
+        <v>6.369521835777675</v>
+      </c>
+      <c r="L18">
+        <v>0.07149450051086603</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.7247836730848789</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.3636009739732913</v>
+      </c>
+      <c r="D19">
+        <v>0.07346495596011948</v>
+      </c>
+      <c r="E19">
+        <v>0.1122439933636983</v>
+      </c>
+      <c r="F19">
+        <v>2.109259721208204</v>
+      </c>
+      <c r="G19">
+        <v>1.772510387307932</v>
+      </c>
+      <c r="H19">
+        <v>1.031282717837314</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.1734595271178065</v>
+      </c>
+      <c r="K19">
+        <v>6.313470422012017</v>
+      </c>
+      <c r="L19">
+        <v>0.07117384399887783</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.7289286966458342</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.3752095395212507</v>
+      </c>
+      <c r="D20">
+        <v>0.0759894624032782</v>
+      </c>
+      <c r="E20">
+        <v>0.1152921436332086</v>
+      </c>
+      <c r="F20">
+        <v>2.160522177218994</v>
+      </c>
+      <c r="G20">
+        <v>1.819268651454337</v>
+      </c>
+      <c r="H20">
+        <v>1.049265750406846</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.1774723857472722</v>
+      </c>
+      <c r="K20">
+        <v>6.566283506559955</v>
+      </c>
+      <c r="L20">
+        <v>0.07262335872865577</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7103965357482274</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.4150896419309618</v>
+      </c>
+      <c r="D21">
+        <v>0.08454171036492397</v>
+      </c>
+      <c r="E21">
+        <v>0.125772648723359</v>
+      </c>
+      <c r="F21">
+        <v>2.340840865911062</v>
+      </c>
+      <c r="G21">
+        <v>1.98407829524848</v>
+      </c>
+      <c r="H21">
+        <v>1.113606892607066</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.1914688534860787</v>
+      </c>
+      <c r="K21">
+        <v>7.426709105987243</v>
+      </c>
+      <c r="L21">
+        <v>0.07761433042564647</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.6503268498247508</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.4418843631175662</v>
+      </c>
+      <c r="D22">
+        <v>0.09019058619618647</v>
+      </c>
+      <c r="E22">
+        <v>0.1328199648931374</v>
+      </c>
+      <c r="F22">
+        <v>2.465380083944822</v>
+      </c>
+      <c r="G22">
+        <v>2.098191099908178</v>
+      </c>
+      <c r="H22">
+        <v>1.158882976928169</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.2010405521720458</v>
+      </c>
+      <c r="K22">
+        <v>7.998466555086281</v>
+      </c>
+      <c r="L22">
+        <v>0.0809748169808131</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.6128078608370657</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.4275114046281203</v>
+      </c>
+      <c r="D23">
+        <v>0.0871697469868522</v>
+      </c>
+      <c r="E23">
+        <v>0.1290392669594134</v>
+      </c>
+      <c r="F23">
+        <v>2.398253696394136</v>
+      </c>
+      <c r="G23">
+        <v>2.036656750733755</v>
+      </c>
+      <c r="H23">
+        <v>1.134402505463868</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.195890335159504</v>
+      </c>
+      <c r="K23">
+        <v>7.692364244247244</v>
+      </c>
+      <c r="L23">
+        <v>0.07917165822830441</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.6326662110596928</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.374568939120735</v>
+      </c>
+      <c r="D24">
+        <v>0.07585058139270728</v>
+      </c>
+      <c r="E24">
+        <v>0.1151239009256599</v>
+      </c>
+      <c r="F24">
+        <v>2.157678274053197</v>
+      </c>
+      <c r="G24">
+        <v>1.816673484431675</v>
+      </c>
+      <c r="H24">
+        <v>1.048264186620344</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.1772501847299424</v>
+      </c>
+      <c r="K24">
+        <v>6.552361721210616</v>
+      </c>
+      <c r="L24">
+        <v>0.07254332442487765</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.7114062213230383</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.3201184505376489</v>
+      </c>
+      <c r="D25">
+        <v>0.06385203705590214</v>
+      </c>
+      <c r="E25">
+        <v>0.1008414435406948</v>
+      </c>
+      <c r="F25">
+        <v>1.922761123139594</v>
+      </c>
+      <c r="G25">
+        <v>1.602787453902721</v>
+      </c>
+      <c r="H25">
+        <v>0.9673104942193049</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.1587083158018459</v>
+      </c>
+      <c r="K25">
+        <v>5.355564745929712</v>
+      </c>
+      <c r="L25">
+        <v>0.06576356641937053</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8031667445611141</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2818370760652584</v>
+        <v>0.4067532613949538</v>
       </c>
       <c r="D2">
-        <v>0.05515420595659037</v>
+        <v>0.07964120985750611</v>
       </c>
       <c r="E2">
-        <v>0.09083127813244118</v>
+        <v>0.1662588220766459</v>
       </c>
       <c r="F2">
-        <v>1.766897019339126</v>
+        <v>3.194189273915754</v>
       </c>
       <c r="G2">
-        <v>1.461462880850036</v>
+        <v>2.425608670607772</v>
       </c>
       <c r="H2">
-        <v>0.9161573352773189</v>
+        <v>1.969510745841774</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.14615094127155</v>
+        <v>0.2905240558401516</v>
       </c>
       <c r="K2">
-        <v>4.495164541212034</v>
+        <v>2.999162257781109</v>
       </c>
       <c r="L2">
-        <v>0.06103710053861633</v>
+        <v>0.1420529065393481</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8759928140517417</v>
+        <v>1.791790579517773</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.256817304198421</v>
+        <v>0.402842577632498</v>
       </c>
       <c r="D3">
-        <v>0.04932557208400823</v>
+        <v>0.07826993896958356</v>
       </c>
       <c r="E3">
-        <v>0.0843110943540033</v>
+        <v>0.1655160427446916</v>
       </c>
       <c r="F3">
-        <v>1.670192146618405</v>
+        <v>3.195487564848605</v>
       </c>
       <c r="G3">
-        <v>1.374053011684182</v>
+        <v>2.425051463014654</v>
       </c>
       <c r="H3">
-        <v>0.8859719892275137</v>
+        <v>1.976853991231081</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1382155883684959</v>
+        <v>0.2904733534460249</v>
       </c>
       <c r="K3">
-        <v>3.921813801204166</v>
+        <v>2.85566803932619</v>
       </c>
       <c r="L3">
-        <v>0.05797671936474202</v>
+        <v>0.1419392129316144</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9283684382245205</v>
+        <v>1.812790627531747</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2418505065978991</v>
+        <v>0.400631243074983</v>
       </c>
       <c r="D4">
-        <v>0.04577373338398871</v>
+        <v>0.07744739348875385</v>
       </c>
       <c r="E4">
-        <v>0.08042260820623781</v>
+        <v>0.1651249368751628</v>
       </c>
       <c r="F4">
-        <v>1.614705457144979</v>
+        <v>3.198030570339768</v>
       </c>
       <c r="G4">
-        <v>1.324007267359718</v>
+        <v>2.426197032378354</v>
       </c>
       <c r="H4">
-        <v>0.869416449473249</v>
+        <v>1.982330368839271</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1335951385308434</v>
+        <v>0.29057192492251</v>
       </c>
       <c r="K4">
-        <v>3.573643982138265</v>
+        <v>2.768826768386361</v>
       </c>
       <c r="L4">
-        <v>0.05616139756005722</v>
+        <v>0.1419129471612486</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.961939934329255</v>
+        <v>1.826364861297012</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2358426937827858</v>
+        <v>0.399777855065139</v>
       </c>
       <c r="D5">
-        <v>0.04433237830569681</v>
+        <v>0.07711712053670539</v>
       </c>
       <c r="E5">
-        <v>0.07886486661988812</v>
+        <v>0.1649819135910811</v>
       </c>
       <c r="F5">
-        <v>1.593002671006417</v>
+        <v>3.199505216553149</v>
       </c>
       <c r="G5">
-        <v>1.304455999066647</v>
+        <v>2.427037072169469</v>
       </c>
       <c r="H5">
-        <v>0.8631357385548171</v>
+        <v>1.984805106635193</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1317713038941406</v>
+        <v>0.290644701236765</v>
       </c>
       <c r="K5">
-        <v>3.432608959141987</v>
+        <v>2.733756823142357</v>
       </c>
       <c r="L5">
-        <v>0.05543677537095348</v>
+        <v>0.1419132166564445</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9759650697676108</v>
+        <v>1.832067482746233</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2348503866885636</v>
+        <v>0.3996390349336707</v>
       </c>
       <c r="D6">
-        <v>0.04409338738722823</v>
+        <v>0.07706257729482502</v>
       </c>
       <c r="E6">
-        <v>0.07860776919341816</v>
+        <v>0.1649591531147934</v>
       </c>
       <c r="F6">
-        <v>1.589451864977235</v>
+        <v>3.199776536752765</v>
       </c>
       <c r="G6">
-        <v>1.301258516683731</v>
+        <v>2.427199075538965</v>
       </c>
       <c r="H6">
-        <v>0.8621200823305202</v>
+        <v>1.985230708845478</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1314719033434955</v>
+        <v>0.290658754920166</v>
       </c>
       <c r="K6">
-        <v>3.409237852139086</v>
+        <v>2.727952743531148</v>
       </c>
       <c r="L6">
-        <v>0.05531734160737045</v>
+        <v>0.1419139248572066</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9783144397486083</v>
+        <v>1.833024727164901</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.241769123903623</v>
+        <v>0.4006195406351338</v>
       </c>
       <c r="D7">
-        <v>0.04575427120248321</v>
+        <v>0.07744291933687464</v>
       </c>
       <c r="E7">
-        <v>0.08040149385568185</v>
+        <v>0.1651229417630233</v>
       </c>
       <c r="F7">
-        <v>1.614409175923129</v>
+        <v>3.198048683952919</v>
       </c>
       <c r="G7">
-        <v>1.32374026675194</v>
+        <v>2.426206851510727</v>
       </c>
       <c r="H7">
-        <v>0.8693298997607144</v>
+        <v>1.982362760170986</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1335703080813673</v>
+        <v>0.2905727743909097</v>
       </c>
       <c r="K7">
-        <v>3.57173866475398</v>
+        <v>2.768352512201091</v>
       </c>
       <c r="L7">
-        <v>0.05615156490407003</v>
+        <v>0.1419129063345892</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9621277010279599</v>
+        <v>1.826441076448315</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.273123077912274</v>
+        <v>0.4053654604390999</v>
       </c>
       <c r="D8">
-        <v>0.0531384344726149</v>
+        <v>0.07916438686101657</v>
       </c>
       <c r="E8">
-        <v>0.08855797907214935</v>
+        <v>0.165989239770731</v>
       </c>
       <c r="F8">
-        <v>1.732702046117026</v>
+        <v>3.194274166834148</v>
       </c>
       <c r="G8">
-        <v>1.430528849926901</v>
+        <v>2.425107233183354</v>
       </c>
       <c r="H8">
-        <v>0.9053190000246047</v>
+        <v>1.971841723584703</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1433598582334099</v>
+        <v>0.290479648493708</v>
       </c>
       <c r="K8">
-        <v>4.296590909818235</v>
+        <v>2.949423217748915</v>
       </c>
       <c r="L8">
-        <v>0.0599680840059591</v>
+        <v>0.1420046816898548</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8937520167476443</v>
+        <v>1.79889023118896</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3381494986514895</v>
+        <v>0.4161790320826526</v>
       </c>
       <c r="D9">
-        <v>0.06786976358725383</v>
+        <v>0.0826928488063956</v>
       </c>
       <c r="E9">
-        <v>0.1055664804739536</v>
+        <v>0.168202905810066</v>
       </c>
       <c r="F9">
-        <v>1.998985755346581</v>
+        <v>3.200758813786194</v>
       </c>
       <c r="G9">
-        <v>1.672079027360098</v>
+        <v>2.4347985329685</v>
       </c>
       <c r="H9">
-        <v>0.9931530811914797</v>
+        <v>1.958899895660068</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1647685426602763</v>
+        <v>0.2913268620752802</v>
       </c>
       <c r="K9">
-        <v>5.75501361663413</v>
+        <v>3.314536202532679</v>
       </c>
       <c r="L9">
-        <v>0.06800283066184321</v>
+        <v>0.1425292251775154</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7714017037697545</v>
+        <v>1.750259519736733</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3887052705672716</v>
+        <v>0.4250446459775219</v>
       </c>
       <c r="D10">
-        <v>0.07890395563366326</v>
+        <v>0.08537670665713648</v>
       </c>
       <c r="E10">
-        <v>0.1188374365785556</v>
+        <v>0.1701427608778658</v>
       </c>
       <c r="F10">
-        <v>2.220832970860883</v>
+        <v>3.214041830435463</v>
       </c>
       <c r="G10">
-        <v>1.874335419402598</v>
+        <v>2.449206771620112</v>
       </c>
       <c r="H10">
-        <v>1.070608075756439</v>
+        <v>1.954099108236704</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1821734813160347</v>
+        <v>0.2925786317704322</v>
       </c>
       <c r="K10">
-        <v>6.858811426288469</v>
+        <v>3.588933063821116</v>
       </c>
       <c r="L10">
-        <v>0.07431057624842907</v>
+        <v>0.1431236268240852</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6894655673869217</v>
+        <v>1.717819570718682</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4124645482457652</v>
+        <v>0.4292784220224064</v>
       </c>
       <c r="D11">
-        <v>0.08398422407778838</v>
+        <v>0.08661722428446694</v>
       </c>
       <c r="E11">
-        <v>0.1250824258893815</v>
+        <v>0.1710932717717384</v>
       </c>
       <c r="F11">
-        <v>2.32878095505626</v>
+        <v>3.221946466217261</v>
       </c>
       <c r="G11">
-        <v>1.973040048669787</v>
+        <v>2.457358597949622</v>
       </c>
       <c r="H11">
-        <v>1.10925626888357</v>
+        <v>1.952941816086508</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1905380730822088</v>
+        <v>0.2932851238862213</v>
       </c>
       <c r="K11">
-        <v>7.370432090317195</v>
+        <v>3.715107656163809</v>
       </c>
       <c r="L11">
-        <v>0.07728536140187003</v>
+        <v>0.1434392197761412</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6541201078230152</v>
+        <v>1.703775947069342</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4215856752653053</v>
+        <v>0.4309105365254311</v>
       </c>
       <c r="D12">
-        <v>0.08591809072322576</v>
+        <v>0.08708976512700417</v>
       </c>
       <c r="E12">
-        <v>0.1274808406466477</v>
+        <v>0.1714629819780598</v>
       </c>
       <c r="F12">
-        <v>2.370794530794882</v>
+        <v>3.225208421741542</v>
       </c>
       <c r="G12">
-        <v>2.011503730294294</v>
+        <v>2.460676314157922</v>
       </c>
       <c r="H12">
-        <v>1.124439467579776</v>
+        <v>1.952651553183898</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1937776053376936</v>
+        <v>0.2935723863135422</v>
       </c>
       <c r="K12">
-        <v>7.565766158181589</v>
+        <v>3.763080942460476</v>
       </c>
       <c r="L12">
-        <v>0.07842861183992511</v>
+        <v>0.1435652062370352</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6410322398876502</v>
+        <v>1.698560642482217</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4196155129756107</v>
+        <v>0.4305577471100719</v>
       </c>
       <c r="D13">
-        <v>0.08550112663184706</v>
+        <v>0.08698787178155243</v>
       </c>
       <c r="E13">
-        <v>0.1269627430891624</v>
+        <v>0.1713829238703717</v>
       </c>
       <c r="F13">
-        <v>2.361693480148844</v>
+        <v>3.224493939332561</v>
       </c>
       <c r="G13">
-        <v>2.00316945374226</v>
+        <v>2.459951502439083</v>
       </c>
       <c r="H13">
-        <v>1.121144142530426</v>
+        <v>1.952707479398498</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1930765766482239</v>
+        <v>0.2935096414067573</v>
       </c>
       <c r="K13">
-        <v>7.523622631012415</v>
+        <v>3.752740428309608</v>
       </c>
       <c r="L13">
-        <v>0.07818161916799227</v>
+        <v>0.1435377850063233</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6438374170758969</v>
+        <v>1.699679281622785</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4132123744563785</v>
+        <v>0.4294121183186519</v>
       </c>
       <c r="D14">
-        <v>0.08414311420934695</v>
+        <v>0.08665604492474444</v>
       </c>
       <c r="E14">
-        <v>0.1252790495766973</v>
+        <v>0.1711234922826321</v>
       </c>
       <c r="F14">
-        <v>2.332213900452857</v>
+        <v>3.222209440249515</v>
       </c>
       <c r="G14">
-        <v>1.976181948855924</v>
+        <v>2.457626916687417</v>
       </c>
       <c r="H14">
-        <v>1.110494066979044</v>
+        <v>1.95291496822361</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1908030998151276</v>
+        <v>0.2933083616140451</v>
       </c>
       <c r="K14">
-        <v>7.386468981996188</v>
+        <v>3.719050567502222</v>
       </c>
       <c r="L14">
-        <v>0.07737907143702216</v>
+        <v>0.1434494550425001</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6530372954603543</v>
+        <v>1.703344821655822</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4093068758175207</v>
+        <v>0.4287141482397203</v>
       </c>
       <c r="D15">
-        <v>0.08331264746072264</v>
+        <v>0.08645315282323196</v>
       </c>
       <c r="E15">
-        <v>0.1242522267655168</v>
+        <v>0.1709658551667488</v>
       </c>
       <c r="F15">
-        <v>2.314308714161527</v>
+        <v>3.220845129727721</v>
       </c>
       <c r="G15">
-        <v>1.959796704654366</v>
+        <v>2.456233129759596</v>
       </c>
       <c r="H15">
-        <v>1.104043757043144</v>
+        <v>1.953061342901378</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1894201574746504</v>
+        <v>0.2931876418873074</v>
       </c>
       <c r="K15">
-        <v>7.302673293215264</v>
+        <v>3.698439768970843</v>
       </c>
       <c r="L15">
-        <v>0.07688972191981236</v>
+        <v>0.1433961934341426</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6587117402467833</v>
+        <v>1.70560345030627</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3871690700069337</v>
+        <v>0.424771999088307</v>
       </c>
       <c r="D16">
-        <v>0.07857328206925729</v>
+        <v>0.08529602747234577</v>
       </c>
       <c r="E16">
-        <v>0.1184338009342376</v>
+        <v>0.170082011044844</v>
       </c>
       <c r="F16">
-        <v>2.213930141010295</v>
+        <v>3.213562788662855</v>
       </c>
       <c r="G16">
-        <v>1.8680298302437</v>
+        <v>2.448706267800105</v>
       </c>
       <c r="H16">
-        <v>1.068155748814604</v>
+        <v>1.954195428042482</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1816364741138443</v>
+        <v>0.2925352205095777</v>
       </c>
       <c r="K16">
-        <v>6.825585884657414</v>
+        <v>3.580714386778368</v>
       </c>
       <c r="L16">
-        <v>0.07411842098749588</v>
+        <v>0.1431039097542026</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6918158837289283</v>
+        <v>1.718751721015177</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3737930561194673</v>
+        <v>0.4224050422092489</v>
       </c>
       <c r="D17">
-        <v>0.0756823048785833</v>
+        <v>0.08459116638620401</v>
       </c>
       <c r="E17">
-        <v>0.1149201338749535</v>
+        <v>0.1695572227024265</v>
       </c>
       <c r="F17">
-        <v>2.154236120931969</v>
+        <v>3.209572857648823</v>
       </c>
       <c r="G17">
-        <v>1.813532570273651</v>
+        <v>2.444498694302126</v>
       </c>
       <c r="H17">
-        <v>1.047052531801342</v>
+        <v>1.955154340940908</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1769811760197939</v>
+        <v>0.292170098804938</v>
       </c>
       <c r="K17">
-        <v>6.535495406212306</v>
+        <v>3.508839147731578</v>
       </c>
       <c r="L17">
-        <v>0.07244639517746521</v>
+        <v>0.1429361641022311</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.712631134614881</v>
+        <v>1.72700057512602</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3661702140181546</v>
+        <v>0.4210625275917153</v>
       </c>
       <c r="D18">
-        <v>0.07402512132854611</v>
+        <v>0.08418759759548067</v>
       </c>
       <c r="E18">
-        <v>0.1129184978231628</v>
+        <v>0.1692617854056735</v>
       </c>
       <c r="F18">
-        <v>2.120554971218482</v>
+        <v>3.207453173987318</v>
       </c>
       <c r="G18">
-        <v>1.782809395350853</v>
+        <v>2.442228902830806</v>
       </c>
       <c r="H18">
-        <v>1.035232036485723</v>
+        <v>1.955802490127439</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1743451311798481</v>
+        <v>0.2919729894925212</v>
       </c>
       <c r="K18">
-        <v>6.369521835777675</v>
+        <v>3.46762551146162</v>
       </c>
       <c r="L18">
-        <v>0.07149450051086603</v>
+        <v>0.1428439365953977</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7247836730848789</v>
+        <v>1.731812245799926</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3636009739732913</v>
+        <v>0.4206112205348802</v>
       </c>
       <c r="D19">
-        <v>0.07346495596011948</v>
+        <v>0.08405127478719976</v>
       </c>
       <c r="E19">
-        <v>0.1122439933636983</v>
+        <v>0.1691628562938412</v>
       </c>
       <c r="F19">
-        <v>2.109259721208204</v>
+        <v>3.206765553276455</v>
       </c>
       <c r="G19">
-        <v>1.772510387307932</v>
+        <v>2.441486170616457</v>
       </c>
       <c r="H19">
-        <v>1.031282717837314</v>
+        <v>1.956038524142144</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1734595271178065</v>
+        <v>0.2919084664734228</v>
       </c>
       <c r="K19">
-        <v>6.313470422012017</v>
+        <v>3.453693125697953</v>
       </c>
       <c r="L19">
-        <v>0.07117384399887783</v>
+        <v>0.1428134414520059</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7289286966458342</v>
+        <v>1.733452924186736</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3752095395212507</v>
+        <v>0.4226550530698887</v>
       </c>
       <c r="D20">
-        <v>0.0759894624032782</v>
+        <v>0.08466600899286192</v>
       </c>
       <c r="E20">
-        <v>0.1152921436332086</v>
+        <v>0.1696124243179611</v>
       </c>
       <c r="F20">
-        <v>2.160522177218994</v>
+        <v>3.209979451899258</v>
       </c>
       <c r="G20">
-        <v>1.819268651454337</v>
+        <v>2.444931035096403</v>
       </c>
       <c r="H20">
-        <v>1.049265750406846</v>
+        <v>1.95504226198463</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1774723857472722</v>
+        <v>0.2922076314872015</v>
       </c>
       <c r="K20">
-        <v>6.566283506559955</v>
+        <v>3.516477238507321</v>
       </c>
       <c r="L20">
-        <v>0.07262335872865577</v>
+        <v>0.1429535806530353</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7103965357482274</v>
+        <v>1.726115520192216</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4150896419309618</v>
+        <v>0.4297478335390963</v>
       </c>
       <c r="D21">
-        <v>0.08454171036492397</v>
+        <v>0.08675343526075352</v>
       </c>
       <c r="E21">
-        <v>0.125772648723359</v>
+        <v>0.1711994285241971</v>
       </c>
       <c r="F21">
-        <v>2.340840865911062</v>
+        <v>3.222873155144157</v>
       </c>
       <c r="G21">
-        <v>1.98407829524848</v>
+        <v>2.458303431400594</v>
       </c>
       <c r="H21">
-        <v>1.113606892607066</v>
+        <v>1.952850004778071</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1914688534860787</v>
+        <v>0.2933669467527054</v>
       </c>
       <c r="K21">
-        <v>7.426709105987243</v>
+        <v>3.728940842430518</v>
       </c>
       <c r="L21">
-        <v>0.07761433042564647</v>
+        <v>0.1434752240414028</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6503268498247508</v>
+        <v>1.702265375192386</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4418843631175662</v>
+        <v>0.4345516876236957</v>
       </c>
       <c r="D22">
-        <v>0.09019058619618647</v>
+        <v>0.08813389781563785</v>
       </c>
       <c r="E22">
-        <v>0.1328199648931374</v>
+        <v>0.1722935818928555</v>
       </c>
       <c r="F22">
-        <v>2.465380083944822</v>
+        <v>3.232866198295994</v>
       </c>
       <c r="G22">
-        <v>2.098191099908178</v>
+        <v>2.468388837539493</v>
       </c>
       <c r="H22">
-        <v>1.158882976928169</v>
+        <v>1.952279939376751</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2010405521720458</v>
+        <v>0.294239633575053</v>
       </c>
       <c r="K22">
-        <v>7.998466555086281</v>
+        <v>3.86892698163615</v>
       </c>
       <c r="L22">
-        <v>0.0809748169808131</v>
+        <v>0.1438538989312477</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6128078608370657</v>
+        <v>1.687276663882152</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4275114046281203</v>
+        <v>0.4319723772935617</v>
       </c>
       <c r="D23">
-        <v>0.0871697469868522</v>
+        <v>0.08739564803621391</v>
       </c>
       <c r="E23">
-        <v>0.1290392669594134</v>
+        <v>0.1717044050322514</v>
       </c>
       <c r="F23">
-        <v>2.398253696394136</v>
+        <v>3.227389118539918</v>
       </c>
       <c r="G23">
-        <v>2.036656750733755</v>
+        <v>2.462882565968101</v>
       </c>
       <c r="H23">
-        <v>1.134402505463868</v>
+        <v>1.952505138061809</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.195890335159504</v>
+        <v>0.2937633338734855</v>
       </c>
       <c r="K23">
-        <v>7.692364244247244</v>
+        <v>3.794110585724184</v>
       </c>
       <c r="L23">
-        <v>0.07917165822830441</v>
+        <v>0.1436483456501847</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6326662110596928</v>
+        <v>1.695221596551963</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.374568939120735</v>
+        <v>0.4225419662212175</v>
       </c>
       <c r="D24">
-        <v>0.07585058139270728</v>
+        <v>0.0846321674610877</v>
       </c>
       <c r="E24">
-        <v>0.1151239009256599</v>
+        <v>0.1695874481350792</v>
       </c>
       <c r="F24">
-        <v>2.157678274053197</v>
+        <v>3.209795088143224</v>
       </c>
       <c r="G24">
-        <v>1.816673484431675</v>
+        <v>2.4447351091641</v>
       </c>
       <c r="H24">
-        <v>1.048264186620344</v>
+        <v>1.955092631199079</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1772501847299424</v>
+        <v>0.2921906230807494</v>
       </c>
       <c r="K24">
-        <v>6.552361721210616</v>
+        <v>3.513023719993328</v>
       </c>
       <c r="L24">
-        <v>0.07254332442487765</v>
+        <v>0.1429456935101427</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7114062213230383</v>
+        <v>1.726515437684753</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3201184505376489</v>
+        <v>0.4130921290563947</v>
       </c>
       <c r="D25">
-        <v>0.06385203705590214</v>
+        <v>0.08172212646591248</v>
       </c>
       <c r="E25">
-        <v>0.1008414435406948</v>
+        <v>0.1675489745471381</v>
       </c>
       <c r="F25">
-        <v>1.922761123139594</v>
+        <v>3.197512457633991</v>
       </c>
       <c r="G25">
-        <v>1.602787453902721</v>
+        <v>2.430901694581962</v>
       </c>
       <c r="H25">
-        <v>0.9673104942193049</v>
+        <v>1.961575747047078</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1587083158018459</v>
+        <v>0.2909872657231745</v>
       </c>
       <c r="K25">
-        <v>5.355564745929712</v>
+        <v>3.214686139026355</v>
       </c>
       <c r="L25">
-        <v>0.06576356641937053</v>
+        <v>0.1423505423340679</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8031667445611141</v>
+        <v>1.762837805269044</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4067532613949538</v>
+        <v>0.2818370760650879</v>
       </c>
       <c r="D2">
-        <v>0.07964120985750611</v>
+        <v>0.05515420595657616</v>
       </c>
       <c r="E2">
-        <v>0.1662588220766459</v>
+        <v>0.09083127813246605</v>
       </c>
       <c r="F2">
-        <v>3.194189273915754</v>
+        <v>1.766897019339112</v>
       </c>
       <c r="G2">
-        <v>2.425608670607772</v>
+        <v>1.461462880849979</v>
       </c>
       <c r="H2">
-        <v>1.969510745841774</v>
+        <v>0.9161573352773189</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2905240558401516</v>
+        <v>0.1461509412715927</v>
       </c>
       <c r="K2">
-        <v>2.999162257781109</v>
+        <v>4.495164541212034</v>
       </c>
       <c r="L2">
-        <v>0.1420529065393481</v>
+        <v>0.06103710053861633</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.791790579517773</v>
+        <v>0.8759928140517452</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.402842577632498</v>
+        <v>0.2568173041982789</v>
       </c>
       <c r="D3">
-        <v>0.07826993896958356</v>
+        <v>0.04932557208408639</v>
       </c>
       <c r="E3">
-        <v>0.1655160427446916</v>
+        <v>0.08431109435396067</v>
       </c>
       <c r="F3">
-        <v>3.195487564848605</v>
+        <v>1.670192146618419</v>
       </c>
       <c r="G3">
-        <v>2.425051463014654</v>
+        <v>1.374053011684268</v>
       </c>
       <c r="H3">
-        <v>1.976853991231081</v>
+        <v>0.8859719892274853</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2904733534460249</v>
+        <v>0.1382155883685314</v>
       </c>
       <c r="K3">
-        <v>2.85566803932619</v>
+        <v>3.921813801204166</v>
       </c>
       <c r="L3">
-        <v>0.1419392129316144</v>
+        <v>0.05797671936473847</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.812790627531747</v>
+        <v>0.9283684382245028</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.400631243074983</v>
+        <v>0.2418505065978991</v>
       </c>
       <c r="D4">
-        <v>0.07744739348875385</v>
+        <v>0.0457737333841024</v>
       </c>
       <c r="E4">
-        <v>0.1651249368751628</v>
+        <v>0.08042260820622005</v>
       </c>
       <c r="F4">
-        <v>3.198030570339768</v>
+        <v>1.614705457144979</v>
       </c>
       <c r="G4">
-        <v>2.426197032378354</v>
+        <v>1.324007267359718</v>
       </c>
       <c r="H4">
-        <v>1.982330368839271</v>
+        <v>0.869416449473249</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.29057192492251</v>
+        <v>0.1335951385308789</v>
       </c>
       <c r="K4">
-        <v>2.768826768386361</v>
+        <v>3.573643982138208</v>
       </c>
       <c r="L4">
-        <v>0.1419129471612486</v>
+        <v>0.05616139756003591</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.826364861297012</v>
+        <v>0.9619399343292514</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.399777855065139</v>
+        <v>0.2358426937829137</v>
       </c>
       <c r="D5">
-        <v>0.07711712053670539</v>
+        <v>0.04433237830571812</v>
       </c>
       <c r="E5">
-        <v>0.1649819135910811</v>
+        <v>0.07886486661990233</v>
       </c>
       <c r="F5">
-        <v>3.199505216553149</v>
+        <v>1.593002671006388</v>
       </c>
       <c r="G5">
-        <v>2.427037072169469</v>
+        <v>1.304455999066775</v>
       </c>
       <c r="H5">
-        <v>1.984805106635193</v>
+        <v>0.8631357385547034</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.290644701236765</v>
+        <v>0.1317713038941619</v>
       </c>
       <c r="K5">
-        <v>2.733756823142357</v>
+        <v>3.432608959141987</v>
       </c>
       <c r="L5">
-        <v>0.1419132166564445</v>
+        <v>0.05543677537096059</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.832067482746233</v>
+        <v>0.9759650697676108</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3996390349336707</v>
+        <v>0.2348503866884215</v>
       </c>
       <c r="D6">
-        <v>0.07706257729482502</v>
+        <v>0.04409338738722823</v>
       </c>
       <c r="E6">
-        <v>0.1649591531147934</v>
+        <v>0.07860776919342882</v>
       </c>
       <c r="F6">
-        <v>3.199776536752765</v>
+        <v>1.589451864977292</v>
       </c>
       <c r="G6">
-        <v>2.427199075538965</v>
+        <v>1.30125851668376</v>
       </c>
       <c r="H6">
-        <v>1.985230708845478</v>
+        <v>0.862120082330506</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.290658754920166</v>
+        <v>0.131471903343467</v>
       </c>
       <c r="K6">
-        <v>2.727952743531148</v>
+        <v>3.409237852139029</v>
       </c>
       <c r="L6">
-        <v>0.1419139248572066</v>
+        <v>0.0553173416073669</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.833024727164901</v>
+        <v>0.9783144397486225</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4006195406351338</v>
+        <v>0.2417691239033104</v>
       </c>
       <c r="D7">
-        <v>0.07744291933687464</v>
+        <v>0.04575427120277453</v>
       </c>
       <c r="E7">
-        <v>0.1651229417630233</v>
+        <v>0.08040149385569251</v>
       </c>
       <c r="F7">
-        <v>3.198048683952919</v>
+        <v>1.614409175923086</v>
       </c>
       <c r="G7">
-        <v>2.426206851510727</v>
+        <v>1.323740266751855</v>
       </c>
       <c r="H7">
-        <v>1.982362760170986</v>
+        <v>0.8693298997607144</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2905727743909097</v>
+        <v>0.1335703080812536</v>
       </c>
       <c r="K7">
-        <v>2.768352512201091</v>
+        <v>3.571738664754037</v>
       </c>
       <c r="L7">
-        <v>0.1419129063345892</v>
+        <v>0.05615156490418372</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.826441076448315</v>
+        <v>0.9621277010279599</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4053654604390999</v>
+        <v>0.2731230779120324</v>
       </c>
       <c r="D8">
-        <v>0.07916438686101657</v>
+        <v>0.0531384344726149</v>
       </c>
       <c r="E8">
-        <v>0.165989239770731</v>
+        <v>0.08855797907214935</v>
       </c>
       <c r="F8">
-        <v>3.194274166834148</v>
+        <v>1.732702046117026</v>
       </c>
       <c r="G8">
-        <v>2.425107233183354</v>
+        <v>1.43052884992693</v>
       </c>
       <c r="H8">
-        <v>1.971841723584703</v>
+        <v>0.9053190000244911</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.290479648493708</v>
+        <v>0.1433598582335733</v>
       </c>
       <c r="K8">
-        <v>2.949423217748915</v>
+        <v>4.296590909818292</v>
       </c>
       <c r="L8">
-        <v>0.1420046816898548</v>
+        <v>0.05996808400597331</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.79889023118896</v>
+        <v>0.8937520167476407</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4161790320826526</v>
+        <v>0.3381494986512621</v>
       </c>
       <c r="D9">
-        <v>0.0826928488063956</v>
+        <v>0.06786976358718277</v>
       </c>
       <c r="E9">
-        <v>0.168202905810066</v>
+        <v>0.1055664804739109</v>
       </c>
       <c r="F9">
-        <v>3.200758813786194</v>
+        <v>1.998985755346595</v>
       </c>
       <c r="G9">
-        <v>2.4347985329685</v>
+        <v>1.672079027360155</v>
       </c>
       <c r="H9">
-        <v>1.958899895660068</v>
+        <v>0.9931530811914797</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2913268620752802</v>
+        <v>0.1647685426601768</v>
       </c>
       <c r="K9">
-        <v>3.314536202532679</v>
+        <v>5.755013616634187</v>
       </c>
       <c r="L9">
-        <v>0.1425292251775154</v>
+        <v>0.06800283066180768</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.750259519736733</v>
+        <v>0.7714017037697687</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4250446459775219</v>
+        <v>0.3887052705674705</v>
       </c>
       <c r="D10">
-        <v>0.08537670665713648</v>
+        <v>0.07890395563365615</v>
       </c>
       <c r="E10">
-        <v>0.1701427608778658</v>
+        <v>0.118837436578584</v>
       </c>
       <c r="F10">
-        <v>3.214041830435463</v>
+        <v>2.220832970860869</v>
       </c>
       <c r="G10">
-        <v>2.449206771620112</v>
+        <v>1.87433541940257</v>
       </c>
       <c r="H10">
-        <v>1.954099108236704</v>
+        <v>1.070608075756553</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2925786317704322</v>
+        <v>0.1821734813158713</v>
       </c>
       <c r="K10">
-        <v>3.588933063821116</v>
+        <v>6.858811426288355</v>
       </c>
       <c r="L10">
-        <v>0.1431236268240852</v>
+        <v>0.07431057624843618</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.717819570718682</v>
+        <v>0.6894655673869288</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4292784220224064</v>
+        <v>0.412464548246021</v>
       </c>
       <c r="D11">
-        <v>0.08661722428446694</v>
+        <v>0.0839842240776747</v>
       </c>
       <c r="E11">
-        <v>0.1710932717717384</v>
+        <v>0.1250824258893495</v>
       </c>
       <c r="F11">
-        <v>3.221946466217261</v>
+        <v>2.32878095505626</v>
       </c>
       <c r="G11">
-        <v>2.457358597949622</v>
+        <v>1.973040048669731</v>
       </c>
       <c r="H11">
-        <v>1.952941816086508</v>
+        <v>1.10925626888357</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2932851238862213</v>
+        <v>0.1905380730820951</v>
       </c>
       <c r="K11">
-        <v>3.715107656163809</v>
+        <v>7.370432090317081</v>
       </c>
       <c r="L11">
-        <v>0.1434392197761412</v>
+        <v>0.07728536140194109</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.703775947069342</v>
+        <v>0.6541201078230756</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4309105365254311</v>
+        <v>0.4215856752653053</v>
       </c>
       <c r="D12">
-        <v>0.08708976512700417</v>
+        <v>0.08591809072343182</v>
       </c>
       <c r="E12">
-        <v>0.1714629819780598</v>
+        <v>0.1274808406466441</v>
       </c>
       <c r="F12">
-        <v>3.225208421741542</v>
+        <v>2.370794530794896</v>
       </c>
       <c r="G12">
-        <v>2.460676314157922</v>
+        <v>2.011503730294351</v>
       </c>
       <c r="H12">
-        <v>1.952651553183898</v>
+        <v>1.124439467579805</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2935723863135422</v>
+        <v>0.1937776053376865</v>
       </c>
       <c r="K12">
-        <v>3.763080942460476</v>
+        <v>7.565766158181475</v>
       </c>
       <c r="L12">
-        <v>0.1435652062370352</v>
+        <v>0.07842861184008143</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.698560642482217</v>
+        <v>0.6410322398875827</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4305577471100719</v>
+        <v>0.4196155129762928</v>
       </c>
       <c r="D13">
-        <v>0.08698787178155243</v>
+        <v>0.08550112663185416</v>
       </c>
       <c r="E13">
-        <v>0.1713829238703717</v>
+        <v>0.126962743089166</v>
       </c>
       <c r="F13">
-        <v>3.224493939332561</v>
+        <v>2.361693480148858</v>
       </c>
       <c r="G13">
-        <v>2.459951502439083</v>
+        <v>2.00316945374226</v>
       </c>
       <c r="H13">
-        <v>1.952707479398498</v>
+        <v>1.121144142530454</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2935096414067573</v>
+        <v>0.1930765766483873</v>
       </c>
       <c r="K13">
-        <v>3.752740428309608</v>
+        <v>7.523622631012529</v>
       </c>
       <c r="L13">
-        <v>0.1435377850063233</v>
+        <v>0.07818161916797095</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.699679281622785</v>
+        <v>0.6438374170758792</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4294121183186519</v>
+        <v>0.4132123744566059</v>
       </c>
       <c r="D14">
-        <v>0.08665604492474444</v>
+        <v>0.08414311420924037</v>
       </c>
       <c r="E14">
-        <v>0.1711234922826321</v>
+        <v>0.125279049576708</v>
       </c>
       <c r="F14">
-        <v>3.222209440249515</v>
+        <v>2.332213900452828</v>
       </c>
       <c r="G14">
-        <v>2.457626916687417</v>
+        <v>1.97618194885581</v>
       </c>
       <c r="H14">
-        <v>1.95291496822361</v>
+        <v>1.11049406697893</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2933083616140451</v>
+        <v>0.1908030998152626</v>
       </c>
       <c r="K14">
-        <v>3.719050567502222</v>
+        <v>7.386468981996074</v>
       </c>
       <c r="L14">
-        <v>0.1434494550425001</v>
+        <v>0.07737907143715717</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.703344821655822</v>
+        <v>0.6530372954603649</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4287141482397203</v>
+        <v>0.4093068758177481</v>
       </c>
       <c r="D15">
-        <v>0.08645315282323196</v>
+        <v>0.08331264746072264</v>
       </c>
       <c r="E15">
-        <v>0.1709658551667488</v>
+        <v>0.1242522267655204</v>
       </c>
       <c r="F15">
-        <v>3.220845129727721</v>
+        <v>2.314308714161541</v>
       </c>
       <c r="G15">
-        <v>2.456233129759596</v>
+        <v>1.959796704654366</v>
       </c>
       <c r="H15">
-        <v>1.953061342901378</v>
+        <v>1.104043757043257</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2931876418873074</v>
+        <v>0.1894201574747072</v>
       </c>
       <c r="K15">
-        <v>3.698439768970843</v>
+        <v>7.302673293215378</v>
       </c>
       <c r="L15">
-        <v>0.1433961934341426</v>
+        <v>0.0768897219198692</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.70560345030627</v>
+        <v>0.6587117402467868</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.424771999088307</v>
+        <v>0.3871690700066495</v>
       </c>
       <c r="D16">
-        <v>0.08529602747234577</v>
+        <v>0.07857328206925729</v>
       </c>
       <c r="E16">
-        <v>0.170082011044844</v>
+        <v>0.1184338009342518</v>
       </c>
       <c r="F16">
-        <v>3.213562788662855</v>
+        <v>2.213930141010295</v>
       </c>
       <c r="G16">
-        <v>2.448706267800105</v>
+        <v>1.868029830243728</v>
       </c>
       <c r="H16">
-        <v>1.954195428042482</v>
+        <v>1.06815574881449</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2925352205095777</v>
+        <v>0.1816364741138941</v>
       </c>
       <c r="K16">
-        <v>3.580714386778368</v>
+        <v>6.825585884657471</v>
       </c>
       <c r="L16">
-        <v>0.1431039097542026</v>
+        <v>0.07411842098754562</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.718751721015177</v>
+        <v>0.6918158837289283</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4224050422092489</v>
+        <v>0.3737930561194673</v>
       </c>
       <c r="D17">
-        <v>0.08459116638620401</v>
+        <v>0.07568230487848382</v>
       </c>
       <c r="E17">
-        <v>0.1695572227024265</v>
+        <v>0.114920133874957</v>
       </c>
       <c r="F17">
-        <v>3.209572857648823</v>
+        <v>2.154236120931984</v>
       </c>
       <c r="G17">
-        <v>2.444498694302126</v>
+        <v>1.813532570273566</v>
       </c>
       <c r="H17">
-        <v>1.955154340940908</v>
+        <v>1.04705253180137</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.292170098804938</v>
+        <v>0.1769811760198081</v>
       </c>
       <c r="K17">
-        <v>3.508839147731578</v>
+        <v>6.535495406212362</v>
       </c>
       <c r="L17">
-        <v>0.1429361641022311</v>
+        <v>0.0724463951774581</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.72700057512602</v>
+        <v>0.712631134614881</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4210625275917153</v>
+        <v>0.3661702140181262</v>
       </c>
       <c r="D18">
-        <v>0.08418759759548067</v>
+        <v>0.07402512132875927</v>
       </c>
       <c r="E18">
-        <v>0.1692617854056735</v>
+        <v>0.1129184978231699</v>
       </c>
       <c r="F18">
-        <v>3.207453173987318</v>
+        <v>2.120554971218482</v>
       </c>
       <c r="G18">
-        <v>2.442228902830806</v>
+        <v>1.782809395350938</v>
       </c>
       <c r="H18">
-        <v>1.955802490127439</v>
+        <v>1.03523203648561</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2919729894925212</v>
+        <v>0.1743451311800044</v>
       </c>
       <c r="K18">
-        <v>3.46762551146162</v>
+        <v>6.369521835777732</v>
       </c>
       <c r="L18">
-        <v>0.1428439365953977</v>
+        <v>0.07149450051096551</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.731812245799926</v>
+        <v>0.7247836730848967</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4206112205348802</v>
+        <v>0.3636009739732629</v>
       </c>
       <c r="D19">
-        <v>0.08405127478719976</v>
+        <v>0.07346495596011948</v>
       </c>
       <c r="E19">
-        <v>0.1691628562938412</v>
+        <v>0.1122439933637303</v>
       </c>
       <c r="F19">
-        <v>3.206765553276455</v>
+        <v>2.109259721208218</v>
       </c>
       <c r="G19">
-        <v>2.441486170616457</v>
+        <v>1.772510387307875</v>
       </c>
       <c r="H19">
-        <v>1.956038524142144</v>
+        <v>1.031282717837257</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2919084664734228</v>
+        <v>0.1734595271177568</v>
       </c>
       <c r="K19">
-        <v>3.453693125697953</v>
+        <v>6.313470422012131</v>
       </c>
       <c r="L19">
-        <v>0.1428134414520059</v>
+        <v>0.07117384399888493</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.733452924186736</v>
+        <v>0.7289286966458022</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4226550530698887</v>
+        <v>0.3752095395210517</v>
       </c>
       <c r="D20">
-        <v>0.08466600899286192</v>
+        <v>0.07598946240340609</v>
       </c>
       <c r="E20">
-        <v>0.1696124243179611</v>
+        <v>0.1152921436332086</v>
       </c>
       <c r="F20">
-        <v>3.209979451899258</v>
+        <v>2.160522177218979</v>
       </c>
       <c r="G20">
-        <v>2.444931035096403</v>
+        <v>1.819268651454337</v>
       </c>
       <c r="H20">
-        <v>1.95504226198463</v>
+        <v>1.04926575040696</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2922076314872015</v>
+        <v>0.1774723857473361</v>
       </c>
       <c r="K20">
-        <v>3.516477238507321</v>
+        <v>6.566283506559955</v>
       </c>
       <c r="L20">
-        <v>0.1429535806530353</v>
+        <v>0.07262335872865577</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.726115520192216</v>
+        <v>0.7103965357482984</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4297478335390963</v>
+        <v>0.4150896419304786</v>
       </c>
       <c r="D21">
-        <v>0.08675343526075352</v>
+        <v>0.08454171036491687</v>
       </c>
       <c r="E21">
-        <v>0.1711994285241971</v>
+        <v>0.1257726487233448</v>
       </c>
       <c r="F21">
-        <v>3.222873155144157</v>
+        <v>2.340840865911034</v>
       </c>
       <c r="G21">
-        <v>2.458303431400594</v>
+        <v>1.984078295248366</v>
       </c>
       <c r="H21">
-        <v>1.952850004778071</v>
+        <v>1.113606892606953</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2933669467527054</v>
+        <v>0.1914688534861924</v>
       </c>
       <c r="K21">
-        <v>3.728940842430518</v>
+        <v>7.426709105987015</v>
       </c>
       <c r="L21">
-        <v>0.1434752240414028</v>
+        <v>0.07761433042559673</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.702265375192386</v>
+        <v>0.6503268498246939</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4345516876236957</v>
+        <v>0.4418843631173672</v>
       </c>
       <c r="D22">
-        <v>0.08813389781563785</v>
+        <v>0.09019058619617937</v>
       </c>
       <c r="E22">
-        <v>0.1722935818928555</v>
+        <v>0.1328199648931374</v>
       </c>
       <c r="F22">
-        <v>3.232866198295994</v>
+        <v>2.465380083944822</v>
       </c>
       <c r="G22">
-        <v>2.468388837539493</v>
+        <v>2.098191099908149</v>
       </c>
       <c r="H22">
-        <v>1.952279939376751</v>
+        <v>1.15888297692814</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.294239633575053</v>
+        <v>0.2010405521720386</v>
       </c>
       <c r="K22">
-        <v>3.86892698163615</v>
+        <v>7.998466555086281</v>
       </c>
       <c r="L22">
-        <v>0.1438538989312477</v>
+        <v>0.08097481698088416</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.687276663882152</v>
+        <v>0.6128078608370124</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4319723772935617</v>
+        <v>0.4275114046280919</v>
       </c>
       <c r="D23">
-        <v>0.08739564803621391</v>
+        <v>0.08716974698674562</v>
       </c>
       <c r="E23">
-        <v>0.1717044050322514</v>
+        <v>0.1290392669594027</v>
       </c>
       <c r="F23">
-        <v>3.227389118539918</v>
+        <v>2.39825369639415</v>
       </c>
       <c r="G23">
-        <v>2.462882565968101</v>
+        <v>2.03665675073367</v>
       </c>
       <c r="H23">
-        <v>1.952505138061809</v>
+        <v>1.134402505463896</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2937633338734855</v>
+        <v>0.1958903351594969</v>
       </c>
       <c r="K23">
-        <v>3.794110585724184</v>
+        <v>7.692364244247187</v>
       </c>
       <c r="L23">
-        <v>0.1436483456501847</v>
+        <v>0.07917165822831862</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.695221596551963</v>
+        <v>0.6326662110596359</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4225419662212175</v>
+        <v>0.3745689391209623</v>
       </c>
       <c r="D24">
-        <v>0.0846321674610877</v>
+        <v>0.07585058139270728</v>
       </c>
       <c r="E24">
-        <v>0.1695874481350792</v>
+        <v>0.1151239009257061</v>
       </c>
       <c r="F24">
-        <v>3.209795088143224</v>
+        <v>2.157678274053183</v>
       </c>
       <c r="G24">
-        <v>2.4447351091641</v>
+        <v>1.81667348443159</v>
       </c>
       <c r="H24">
-        <v>1.955092631199079</v>
+        <v>1.048264186620173</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2921906230807494</v>
+        <v>0.1772501847299495</v>
       </c>
       <c r="K24">
-        <v>3.513023719993328</v>
+        <v>6.552361721210616</v>
       </c>
       <c r="L24">
-        <v>0.1429456935101427</v>
+        <v>0.07254332442505529</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.726515437684753</v>
+        <v>0.7114062213230277</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4130921290563947</v>
+        <v>0.3201184505374499</v>
       </c>
       <c r="D25">
-        <v>0.08172212646591248</v>
+        <v>0.06385203705593767</v>
       </c>
       <c r="E25">
-        <v>0.1675489745471381</v>
+        <v>0.1008414435406912</v>
       </c>
       <c r="F25">
-        <v>3.197512457633991</v>
+        <v>1.922761123139608</v>
       </c>
       <c r="G25">
-        <v>2.430901694581962</v>
+        <v>1.602787453902749</v>
       </c>
       <c r="H25">
-        <v>1.961575747047078</v>
+        <v>0.9673104942193049</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2909872657231745</v>
+        <v>0.1587083158019098</v>
       </c>
       <c r="K25">
-        <v>3.214686139026355</v>
+        <v>5.355564745929598</v>
       </c>
       <c r="L25">
-        <v>0.1423505423340679</v>
+        <v>0.06576356641931369</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.762837805269044</v>
+        <v>0.8031667445611284</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2818370760650879</v>
+        <v>0.06749240327377493</v>
       </c>
       <c r="D2">
-        <v>0.05515420595657616</v>
+        <v>0.2800899056855144</v>
       </c>
       <c r="E2">
-        <v>0.09083127813246605</v>
+        <v>0.599668809712341</v>
       </c>
       <c r="F2">
-        <v>1.766897019339112</v>
+        <v>0.5545635342575963</v>
       </c>
       <c r="G2">
-        <v>1.461462880849979</v>
+        <v>0.8726838669876003</v>
       </c>
       <c r="H2">
-        <v>0.9161573352773189</v>
+        <v>0.05946049205012327</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.05378938585469051</v>
       </c>
       <c r="J2">
-        <v>0.1461509412715927</v>
+        <v>0.4944213540186695</v>
       </c>
       <c r="K2">
-        <v>4.495164541212034</v>
+        <v>0.7083656956906808</v>
       </c>
       <c r="L2">
-        <v>0.06103710053861633</v>
+        <v>1.065560197427942</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8759928140517452</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>32.48834792669618</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2568173041982789</v>
+        <v>0.0537720757513398</v>
       </c>
       <c r="D3">
-        <v>0.04932557208408639</v>
+        <v>0.247109663014399</v>
       </c>
       <c r="E3">
-        <v>0.08431109435396067</v>
+        <v>0.5262984887861464</v>
       </c>
       <c r="F3">
-        <v>1.670192146618419</v>
+        <v>0.5037415731622232</v>
       </c>
       <c r="G3">
-        <v>1.374053011684268</v>
+        <v>0.7585006434041759</v>
       </c>
       <c r="H3">
-        <v>0.8859719892274853</v>
+        <v>0.0365380330602148</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03711924570978509</v>
       </c>
       <c r="J3">
-        <v>0.1382155883685314</v>
+        <v>0.4540674535867311</v>
       </c>
       <c r="K3">
-        <v>3.921813801204166</v>
+        <v>0.6296517043819634</v>
       </c>
       <c r="L3">
-        <v>0.05797671936473847</v>
+        <v>0.9335750172426742</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9283684382245028</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.89757093906979</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2418505065978991</v>
+        <v>0.04602664842770565</v>
       </c>
       <c r="D4">
-        <v>0.0457737333841024</v>
+        <v>0.2266970165778019</v>
       </c>
       <c r="E4">
-        <v>0.08042260820622005</v>
+        <v>0.4811894505812901</v>
       </c>
       <c r="F4">
-        <v>1.614705457144979</v>
+        <v>0.4788822292348414</v>
       </c>
       <c r="G4">
-        <v>1.324007267359718</v>
+        <v>0.6944166790961503</v>
       </c>
       <c r="H4">
-        <v>0.869416449473249</v>
+        <v>0.02535579236810981</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02840862417950563</v>
       </c>
       <c r="J4">
-        <v>0.1335951385308789</v>
+        <v>0.4322660622380567</v>
       </c>
       <c r="K4">
-        <v>3.573643982138208</v>
+        <v>0.5847108912353107</v>
       </c>
       <c r="L4">
-        <v>0.05616139756003591</v>
+        <v>0.8526787975978607</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9619399343292514</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.15886577786955</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2358426937829137</v>
+        <v>0.04280620281206282</v>
       </c>
       <c r="D5">
-        <v>0.04433237830571812</v>
+        <v>0.2180655325737604</v>
       </c>
       <c r="E5">
-        <v>0.07886486661990233</v>
+        <v>0.4626589625051309</v>
       </c>
       <c r="F5">
-        <v>1.593002671006388</v>
+        <v>0.4690871487182804</v>
       </c>
       <c r="G5">
-        <v>1.304455999066775</v>
+        <v>0.6680711243439816</v>
       </c>
       <c r="H5">
-        <v>0.8631357385547034</v>
+        <v>0.02139074150777084</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02520612829719804</v>
       </c>
       <c r="J5">
-        <v>0.1317713038941619</v>
+        <v>0.4232626186550874</v>
       </c>
       <c r="K5">
-        <v>3.432608959141987</v>
+        <v>0.5657219471538468</v>
       </c>
       <c r="L5">
-        <v>0.05543677537096059</v>
+        <v>0.8197963931354764</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9759650697676108</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.05822819032198</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2348503866884215</v>
+        <v>0.04203408127050778</v>
       </c>
       <c r="D6">
-        <v>0.04409338738722823</v>
+        <v>0.2162979424213631</v>
       </c>
       <c r="E6">
-        <v>0.07860776919342882</v>
+        <v>0.4594352268490454</v>
       </c>
       <c r="F6">
-        <v>1.589451864977292</v>
+        <v>0.4662819963666962</v>
       </c>
       <c r="G6">
-        <v>1.30125851668376</v>
+        <v>0.6619243984051622</v>
       </c>
       <c r="H6">
-        <v>0.862120082330506</v>
+        <v>0.0207529213474566</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02472545668763892</v>
       </c>
       <c r="J6">
-        <v>0.131471903343467</v>
+        <v>0.420874231957086</v>
       </c>
       <c r="K6">
-        <v>3.409237852139029</v>
+        <v>0.5609084414227183</v>
       </c>
       <c r="L6">
-        <v>0.0553173416073669</v>
+        <v>0.8144398466820633</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9783144397486225</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>23.87617487453855</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2417691239033104</v>
+        <v>0.04530863987045208</v>
       </c>
       <c r="D7">
-        <v>0.04575427120277453</v>
+        <v>0.2256710420569021</v>
       </c>
       <c r="E7">
-        <v>0.08040149385569251</v>
+        <v>0.4805448935805359</v>
       </c>
       <c r="F7">
-        <v>1.614409175923086</v>
+        <v>0.4752932008092543</v>
       </c>
       <c r="G7">
-        <v>1.323740266751855</v>
+        <v>0.6889855177334283</v>
       </c>
       <c r="H7">
-        <v>0.8693298997607144</v>
+        <v>0.02526168175718865</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02843127377934351</v>
       </c>
       <c r="J7">
-        <v>0.1335703080812536</v>
+        <v>0.4295879749902127</v>
       </c>
       <c r="K7">
-        <v>3.571738664754037</v>
+        <v>0.5797746582445171</v>
       </c>
       <c r="L7">
-        <v>0.05615156490418372</v>
+        <v>0.8525240776555734</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9621277010279599</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.14363232351758</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2731230779120324</v>
+        <v>0.06169170998798279</v>
       </c>
       <c r="D8">
-        <v>0.0531384344726149</v>
+        <v>0.2675336548375924</v>
       </c>
       <c r="E8">
-        <v>0.08855797907214935</v>
+        <v>0.5738514538463377</v>
       </c>
       <c r="F8">
-        <v>1.732702046117026</v>
+        <v>0.5308874123411798</v>
       </c>
       <c r="G8">
-        <v>1.43052884992693</v>
+        <v>0.8250251821426104</v>
       </c>
       <c r="H8">
-        <v>0.9053190000244911</v>
+        <v>0.05080223718652893</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.04771217517650506</v>
       </c>
       <c r="J8">
-        <v>0.1433598582335733</v>
+        <v>0.4763644590593969</v>
       </c>
       <c r="K8">
-        <v>4.296590909818292</v>
+        <v>0.674090160550648</v>
       </c>
       <c r="L8">
-        <v>0.05996808400597331</v>
+        <v>1.020392029878565</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8937520167476407</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>30.88512731031886</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3381494986512621</v>
+        <v>0.1023850556328938</v>
       </c>
       <c r="D9">
-        <v>0.06786976358718277</v>
+        <v>0.3500915174429338</v>
       </c>
       <c r="E9">
-        <v>0.1055664804739109</v>
+        <v>0.7580812547365241</v>
       </c>
       <c r="F9">
-        <v>1.998985755346595</v>
+        <v>0.7099570306814229</v>
       </c>
       <c r="G9">
-        <v>1.672079027360155</v>
+        <v>1.16248776953563</v>
       </c>
       <c r="H9">
-        <v>0.9931530811914797</v>
+        <v>0.1312587678759174</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.100863327244312</v>
       </c>
       <c r="J9">
-        <v>0.1647685426601768</v>
+        <v>0.602479445694172</v>
       </c>
       <c r="K9">
-        <v>5.755013616634187</v>
+        <v>0.9023018404944025</v>
       </c>
       <c r="L9">
-        <v>0.06800283066180768</v>
+        <v>1.352666556096835</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7714017037697687</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>43.0577257905116</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3887052705674705</v>
+        <v>0.1411771715528332</v>
       </c>
       <c r="D10">
-        <v>0.07890395563365615</v>
+        <v>0.4165343159699262</v>
       </c>
       <c r="E10">
-        <v>0.118837436578584</v>
+        <v>0.9155784932766693</v>
       </c>
       <c r="F10">
-        <v>2.220832970860869</v>
+        <v>0.8803360140022107</v>
       </c>
       <c r="G10">
-        <v>1.87433541940257</v>
+        <v>1.44510317913452</v>
       </c>
       <c r="H10">
-        <v>1.070608075756553</v>
+        <v>0.2225148624805176</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1551691876071279</v>
       </c>
       <c r="J10">
-        <v>0.1821734813158713</v>
+        <v>0.7103140832165309</v>
       </c>
       <c r="K10">
-        <v>6.858811426288355</v>
+        <v>1.085478981542636</v>
       </c>
       <c r="L10">
-        <v>0.07431057624843618</v>
+        <v>1.642688861224826</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6894655673869288</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>53.11285527050893</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.412464548246021</v>
+        <v>0.1705013900713368</v>
       </c>
       <c r="D11">
-        <v>0.0839842240776747</v>
+        <v>0.5075025237424882</v>
       </c>
       <c r="E11">
-        <v>0.1250824258893495</v>
+        <v>1.174229058906747</v>
       </c>
       <c r="F11">
-        <v>2.32878095505626</v>
+        <v>0.7788143718544944</v>
       </c>
       <c r="G11">
-        <v>1.973040048669731</v>
+        <v>1.370109702345871</v>
       </c>
       <c r="H11">
-        <v>1.10925626888357</v>
+        <v>0.289061305186344</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1839634996167003</v>
       </c>
       <c r="J11">
-        <v>0.1905380730820951</v>
+        <v>0.6543268637656467</v>
       </c>
       <c r="K11">
-        <v>7.370432090317081</v>
+        <v>1.021961026110077</v>
       </c>
       <c r="L11">
-        <v>0.07728536140194109</v>
+        <v>2.140387765646039</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6541201078230756</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>58.11354385594012</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4215856752653053</v>
+        <v>0.1890894199265887</v>
       </c>
       <c r="D12">
-        <v>0.08591809072343182</v>
+        <v>0.5775883156813677</v>
       </c>
       <c r="E12">
-        <v>0.1274808406466441</v>
+        <v>1.380159424130639</v>
       </c>
       <c r="F12">
-        <v>2.370794530794896</v>
+        <v>0.6704302514339844</v>
       </c>
       <c r="G12">
-        <v>2.011503730294351</v>
+        <v>1.257524426618119</v>
       </c>
       <c r="H12">
-        <v>1.124439467579805</v>
+        <v>0.3489384890642668</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1961799996396856</v>
       </c>
       <c r="J12">
-        <v>0.1937776053376865</v>
+        <v>0.5891990485601184</v>
       </c>
       <c r="K12">
-        <v>7.565766158181475</v>
+        <v>0.9379266612387056</v>
       </c>
       <c r="L12">
-        <v>0.07842861184008143</v>
+        <v>2.539870267362062</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6410322398875827</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>60.10592311906714</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4196155129762928</v>
+        <v>0.1976644951960722</v>
       </c>
       <c r="D13">
-        <v>0.08550112663185416</v>
+        <v>0.6330370640816909</v>
       </c>
       <c r="E13">
-        <v>0.126962743089166</v>
+        <v>1.553111143865564</v>
       </c>
       <c r="F13">
-        <v>2.361693480148858</v>
+        <v>0.5379361658988202</v>
       </c>
       <c r="G13">
-        <v>2.00316945374226</v>
+        <v>1.094329863665578</v>
       </c>
       <c r="H13">
-        <v>1.121144142530454</v>
+        <v>0.4010377385243515</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1939096848538613</v>
       </c>
       <c r="J13">
-        <v>0.1930765766483873</v>
+        <v>0.5060844606124846</v>
       </c>
       <c r="K13">
-        <v>7.523622631012529</v>
+        <v>0.8219657265012046</v>
       </c>
       <c r="L13">
-        <v>0.07818161916797095</v>
+        <v>2.879963399164211</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6438374170758792</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>59.67900154061664</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4132123744566059</v>
+        <v>0.1988868644475303</v>
       </c>
       <c r="D14">
-        <v>0.08414311420924037</v>
+        <v>0.6649219868884302</v>
       </c>
       <c r="E14">
-        <v>0.125279049576708</v>
+        <v>1.659702037390403</v>
       </c>
       <c r="F14">
-        <v>2.332213900452828</v>
+        <v>0.4371341686199628</v>
       </c>
       <c r="G14">
-        <v>1.97618194885581</v>
+        <v>0.9589943767694109</v>
       </c>
       <c r="H14">
-        <v>1.11049406697893</v>
+        <v>0.4368138982008105</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1858388169991336</v>
       </c>
       <c r="J14">
-        <v>0.1908030998152626</v>
+        <v>0.4405737821635114</v>
       </c>
       <c r="K14">
-        <v>7.386468981996074</v>
+        <v>0.7270651643278754</v>
       </c>
       <c r="L14">
-        <v>0.07737907143715717</v>
+        <v>3.09275805399227</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6530372954603649</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>58.28977653985277</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4093068758177481</v>
+        <v>0.1964368112634673</v>
       </c>
       <c r="D15">
-        <v>0.08331264746072264</v>
+        <v>0.6680898548411278</v>
       </c>
       <c r="E15">
-        <v>0.1242522267655204</v>
+        <v>1.675064490859427</v>
       </c>
       <c r="F15">
-        <v>2.314308714161541</v>
+        <v>0.4057212395369518</v>
       </c>
       <c r="G15">
-        <v>1.959796704654366</v>
+        <v>0.9136365527566994</v>
       </c>
       <c r="H15">
-        <v>1.104043757043257</v>
+        <v>0.4404709663187703</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1807892352809066</v>
       </c>
       <c r="J15">
-        <v>0.1894201574747072</v>
+        <v>0.4200152310991996</v>
       </c>
       <c r="K15">
-        <v>7.302673293215378</v>
+        <v>0.6957618436677677</v>
       </c>
       <c r="L15">
-        <v>0.0768897219198692</v>
+        <v>3.125344208513042</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6587117402467868</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>57.44730746541865</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3871690700066495</v>
+        <v>0.1734941611052108</v>
       </c>
       <c r="D16">
-        <v>0.07857328206925729</v>
+        <v>0.6242736059034826</v>
       </c>
       <c r="E16">
-        <v>0.1184338009342518</v>
+        <v>1.561275319088836</v>
       </c>
       <c r="F16">
-        <v>2.213930141010295</v>
+        <v>0.344495569536214</v>
       </c>
       <c r="G16">
-        <v>1.868029830243728</v>
+        <v>0.8105063160081585</v>
       </c>
       <c r="H16">
-        <v>1.06815574881449</v>
+        <v>0.3770877783666009</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1526778836436362</v>
       </c>
       <c r="J16">
-        <v>0.1816364741138941</v>
+        <v>0.3838433382867237</v>
       </c>
       <c r="K16">
-        <v>6.825585884657471</v>
+        <v>0.6324400379495216</v>
       </c>
       <c r="L16">
-        <v>0.07411842098754562</v>
+        <v>2.910605119973383</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6918158837289283</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>52.77718458188622</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3737930561194673</v>
+        <v>0.1561712351272675</v>
       </c>
       <c r="D17">
-        <v>0.07568230487848382</v>
+        <v>0.5741226988750441</v>
       </c>
       <c r="E17">
-        <v>0.114920133874957</v>
+        <v>1.418483763788259</v>
       </c>
       <c r="F17">
-        <v>2.154236120931984</v>
+        <v>0.3530634669139872</v>
       </c>
       <c r="G17">
-        <v>1.813532570273566</v>
+        <v>0.8054244629909135</v>
       </c>
       <c r="H17">
-        <v>1.04705253180137</v>
+        <v>0.310827946958625</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1367274684883117</v>
       </c>
       <c r="J17">
-        <v>0.1769811760198081</v>
+        <v>0.3918173956955684</v>
       </c>
       <c r="K17">
-        <v>6.535495406212362</v>
+        <v>0.6351120121761227</v>
       </c>
       <c r="L17">
-        <v>0.0724463951774581</v>
+        <v>2.634966116037333</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.712631134614881</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>50.04189501761937</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3661702140181262</v>
+        <v>0.142104174129372</v>
       </c>
       <c r="D18">
-        <v>0.07402512132875927</v>
+        <v>0.5159973707376366</v>
       </c>
       <c r="E18">
-        <v>0.1129184978231699</v>
+        <v>1.242772421578621</v>
       </c>
       <c r="F18">
-        <v>2.120554971218482</v>
+        <v>0.4253978357085728</v>
       </c>
       <c r="G18">
-        <v>1.782809395350938</v>
+        <v>0.8857037418750053</v>
       </c>
       <c r="H18">
-        <v>1.03523203648561</v>
+        <v>0.2427004268789545</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.127937142168256</v>
       </c>
       <c r="J18">
-        <v>0.1743451311800044</v>
+        <v>0.4395729625683771</v>
       </c>
       <c r="K18">
-        <v>6.369521835777732</v>
+        <v>0.6970088072773066</v>
       </c>
       <c r="L18">
-        <v>0.07149450051096551</v>
+        <v>2.291237076061321</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7247836730848967</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>48.50956998298642</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3636009739732629</v>
+        <v>0.1304536556632456</v>
       </c>
       <c r="D19">
-        <v>0.07346495596011948</v>
+        <v>0.4564442759667884</v>
       </c>
       <c r="E19">
-        <v>0.1122439933637303</v>
+        <v>1.063236686284398</v>
       </c>
       <c r="F19">
-        <v>2.109259721208218</v>
+        <v>0.5480052811753566</v>
       </c>
       <c r="G19">
-        <v>1.772510387307875</v>
+        <v>1.025941515973571</v>
       </c>
       <c r="H19">
-        <v>1.031282717837257</v>
+        <v>0.1937061369185216</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1252865121143021</v>
       </c>
       <c r="J19">
-        <v>0.1734595271177568</v>
+        <v>0.5141784457408818</v>
       </c>
       <c r="K19">
-        <v>6.313470422012131</v>
+        <v>0.7971428751406364</v>
       </c>
       <c r="L19">
-        <v>0.07117384399888493</v>
+        <v>1.940909115803748</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7289286966458022</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>48.00196323624147</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3752095395210517</v>
+        <v>0.1279980372757024</v>
       </c>
       <c r="D20">
-        <v>0.07598946240340609</v>
+        <v>0.3963924661529177</v>
       </c>
       <c r="E20">
-        <v>0.1152921436332086</v>
+        <v>0.8733867547836809</v>
       </c>
       <c r="F20">
-        <v>2.160522177218979</v>
+        <v>0.8167007987909756</v>
       </c>
       <c r="G20">
-        <v>1.819268651454337</v>
+        <v>1.346486088030218</v>
       </c>
       <c r="H20">
-        <v>1.04926575040696</v>
+        <v>0.1948817764543875</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1392957582101877</v>
       </c>
       <c r="J20">
-        <v>0.1774723857473361</v>
+        <v>0.6700306779839309</v>
       </c>
       <c r="K20">
-        <v>6.566283506559955</v>
+        <v>1.017324995020928</v>
       </c>
       <c r="L20">
-        <v>0.07262335872865577</v>
+        <v>1.568057488452837</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7103965357482984</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>50.35108332000419</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4150896419304786</v>
+        <v>0.1612112984308283</v>
       </c>
       <c r="D21">
-        <v>0.08454171036491687</v>
+        <v>0.4377272665505529</v>
       </c>
       <c r="E21">
-        <v>0.1257726487233448</v>
+        <v>0.9662388017128336</v>
       </c>
       <c r="F21">
-        <v>2.340840865911034</v>
+        <v>1.018672645377805</v>
       </c>
       <c r="G21">
-        <v>1.984078295248366</v>
+        <v>1.638158030479644</v>
       </c>
       <c r="H21">
-        <v>1.113606892606953</v>
+        <v>0.2835890861335197</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1890080379045225</v>
       </c>
       <c r="J21">
-        <v>0.1914688534861924</v>
+        <v>0.7892989847229899</v>
       </c>
       <c r="K21">
-        <v>7.426709105987015</v>
+        <v>1.206364940344287</v>
       </c>
       <c r="L21">
-        <v>0.07761433042559673</v>
+        <v>1.737120583662829</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6503268498246939</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>58.71501303177484</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4418843631173672</v>
+        <v>0.1882352044350242</v>
       </c>
       <c r="D22">
-        <v>0.09019058619617937</v>
+        <v>0.469522859916907</v>
       </c>
       <c r="E22">
-        <v>0.1328199648931374</v>
+        <v>1.03964167067997</v>
       </c>
       <c r="F22">
-        <v>2.465380083944822</v>
+        <v>1.17169230911108</v>
       </c>
       <c r="G22">
-        <v>2.098191099908149</v>
+        <v>1.850756417765069</v>
       </c>
       <c r="H22">
-        <v>1.15888297692814</v>
+        <v>0.356875662177103</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2280895550653037</v>
       </c>
       <c r="J22">
-        <v>0.2010405521720386</v>
+        <v>0.8768721368079184</v>
       </c>
       <c r="K22">
-        <v>7.998466555086281</v>
+        <v>1.343431135432311</v>
       </c>
       <c r="L22">
-        <v>0.08097481698088416</v>
+        <v>1.871981047156169</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6128078608370124</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>64.76693060484877</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4275114046280919</v>
+        <v>0.1741846937931868</v>
       </c>
       <c r="D23">
-        <v>0.08716974698674562</v>
+        <v>0.4536380496317918</v>
       </c>
       <c r="E23">
-        <v>0.1290392669594027</v>
+        <v>1.0006316155646</v>
       </c>
       <c r="F23">
-        <v>2.39825369639415</v>
+        <v>1.09159817131588</v>
       </c>
       <c r="G23">
-        <v>2.03665675073367</v>
+        <v>1.741065751200949</v>
       </c>
       <c r="H23">
-        <v>1.134402505463896</v>
+        <v>0.3161477980454843</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2065882587226771</v>
       </c>
       <c r="J23">
-        <v>0.1958903351594969</v>
+        <v>0.832148534226377</v>
       </c>
       <c r="K23">
-        <v>7.692364244247187</v>
+        <v>1.274803322742343</v>
       </c>
       <c r="L23">
-        <v>0.07917165822831862</v>
+        <v>1.798918414135557</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6326662110596359</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>61.46999338160663</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3745689391209623</v>
+        <v>0.1280039323518665</v>
       </c>
       <c r="D24">
-        <v>0.07585058139270728</v>
+        <v>0.3921713190462981</v>
       </c>
       <c r="E24">
-        <v>0.1151239009257061</v>
+        <v>0.8570774744796665</v>
       </c>
       <c r="F24">
-        <v>2.157678274053183</v>
+        <v>0.8391491737104815</v>
       </c>
       <c r="G24">
-        <v>1.81667348443159</v>
+        <v>1.37222669440888</v>
       </c>
       <c r="H24">
-        <v>1.048264186620173</v>
+        <v>0.1943406139255801</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1387541681149242</v>
       </c>
       <c r="J24">
-        <v>0.1772501847299495</v>
+        <v>0.6835039823254192</v>
       </c>
       <c r="K24">
-        <v>6.552361721210616</v>
+        <v>1.037573729635128</v>
       </c>
       <c r="L24">
-        <v>0.07254332442505529</v>
+        <v>1.534748159452079</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7114062213230277</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>50.22613269554506</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3201184505374499</v>
+        <v>0.08902360624583139</v>
       </c>
       <c r="D25">
-        <v>0.06385203705593767</v>
+        <v>0.3261805518338008</v>
       </c>
       <c r="E25">
-        <v>0.1008414435406912</v>
+        <v>0.7072972696045383</v>
       </c>
       <c r="F25">
-        <v>1.922761123139608</v>
+        <v>0.6458822057683022</v>
       </c>
       <c r="G25">
-        <v>1.602787453902749</v>
+        <v>1.052684490695867</v>
       </c>
       <c r="H25">
-        <v>0.9673104942193049</v>
+        <v>0.1049015394154733</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.08429706287725391</v>
       </c>
       <c r="J25">
-        <v>0.1587083158019098</v>
+        <v>0.5593217372828576</v>
       </c>
       <c r="K25">
-        <v>5.355564745929598</v>
+        <v>0.8266363364874891</v>
       </c>
       <c r="L25">
-        <v>0.06576356641931369</v>
+        <v>1.262526375955872</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8031667445611284</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>39.61939447893224</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06749240327377493</v>
+        <v>0.04860230765008566</v>
       </c>
       <c r="D2">
-        <v>0.2800899056855144</v>
+        <v>0.2384553025786289</v>
       </c>
       <c r="E2">
-        <v>0.599668809712341</v>
+        <v>0.5822785685465988</v>
       </c>
       <c r="F2">
-        <v>0.5545635342575963</v>
+        <v>0.4147691738605346</v>
       </c>
       <c r="G2">
-        <v>0.8726838669876003</v>
+        <v>0.6453494389461554</v>
       </c>
       <c r="H2">
-        <v>0.05946049205012327</v>
+        <v>0.0516078430330402</v>
       </c>
       <c r="I2">
-        <v>0.05378938585469051</v>
+        <v>0.04003202735922162</v>
       </c>
       <c r="J2">
-        <v>0.4944213540186695</v>
+        <v>0.4452942730073772</v>
       </c>
       <c r="K2">
-        <v>0.7083656956906808</v>
+        <v>0.5189396307722731</v>
       </c>
       <c r="L2">
-        <v>1.065560197427942</v>
+        <v>0.2692533562909603</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1582660297204299</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.079375825840117</v>
       </c>
       <c r="O2">
-        <v>32.48834792669618</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.42065407879522</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0537720757513398</v>
+        <v>0.03603043749030022</v>
       </c>
       <c r="D3">
-        <v>0.247109663014399</v>
+        <v>0.212208343108486</v>
       </c>
       <c r="E3">
-        <v>0.5262984887861464</v>
+        <v>0.5112495353311886</v>
       </c>
       <c r="F3">
-        <v>0.5037415731622232</v>
+        <v>0.3908476600418851</v>
       </c>
       <c r="G3">
-        <v>0.7585006434041759</v>
+        <v>0.5681099493235706</v>
       </c>
       <c r="H3">
-        <v>0.0365380330602148</v>
+        <v>0.0317737548507185</v>
       </c>
       <c r="I3">
-        <v>0.03711924570978509</v>
+        <v>0.02837740353387019</v>
       </c>
       <c r="J3">
-        <v>0.4540674535867311</v>
+        <v>0.4222502773754115</v>
       </c>
       <c r="K3">
-        <v>0.6296517043819634</v>
+        <v>0.4742855016564889</v>
       </c>
       <c r="L3">
-        <v>0.9335750172426742</v>
+        <v>0.2631545542897769</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1273088995191642</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.9443916808231734</v>
       </c>
       <c r="O3">
-        <v>27.89757093906979</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>27.8560986943221</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04602664842770565</v>
+        <v>0.02931049223407634</v>
       </c>
       <c r="D4">
-        <v>0.2266970165778019</v>
+        <v>0.1959909939903923</v>
       </c>
       <c r="E4">
-        <v>0.4811894505812901</v>
+        <v>0.4677165004351593</v>
       </c>
       <c r="F4">
-        <v>0.4788822292348414</v>
+        <v>0.3809163787688661</v>
       </c>
       <c r="G4">
-        <v>0.6944166790961503</v>
+        <v>0.5254616614983263</v>
       </c>
       <c r="H4">
-        <v>0.02535579236810981</v>
+        <v>0.02207950698272328</v>
       </c>
       <c r="I4">
-        <v>0.02840862417950563</v>
+        <v>0.02220926902335219</v>
       </c>
       <c r="J4">
-        <v>0.4322660622380567</v>
+        <v>0.4094304980351353</v>
       </c>
       <c r="K4">
-        <v>0.5847108912353107</v>
+        <v>0.4487440768497422</v>
       </c>
       <c r="L4">
-        <v>0.8526787975978607</v>
+        <v>0.2594328984196608</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1104128778701714</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.861868607706981</v>
       </c>
       <c r="O4">
-        <v>25.15886577786955</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.1296749149127</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04280620281206282</v>
+        <v>0.02670039988344897</v>
       </c>
       <c r="D5">
-        <v>0.2180655325737604</v>
+        <v>0.1891225138504495</v>
       </c>
       <c r="E5">
-        <v>0.4626589625051309</v>
+        <v>0.4498696089614285</v>
       </c>
       <c r="F5">
-        <v>0.4690871487182804</v>
+        <v>0.377087981857521</v>
       </c>
       <c r="G5">
-        <v>0.6680711243439816</v>
+        <v>0.5079013980978431</v>
       </c>
       <c r="H5">
-        <v>0.02139074150777084</v>
+        <v>0.01863972513194985</v>
       </c>
       <c r="I5">
-        <v>0.02520612829719804</v>
+        <v>0.01994904886875926</v>
       </c>
       <c r="J5">
-        <v>0.4232626186550874</v>
+        <v>0.4038617133686415</v>
       </c>
       <c r="K5">
-        <v>0.5657219471538468</v>
+        <v>0.4376442397987788</v>
       </c>
       <c r="L5">
-        <v>0.8197963931354764</v>
+        <v>0.2574360015777586</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1036515079481859</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8283624583865503</v>
       </c>
       <c r="O5">
-        <v>24.05822819032198</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.03333600715911</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04203408127050778</v>
+        <v>0.02618313815246154</v>
       </c>
       <c r="D6">
-        <v>0.2162979424213631</v>
+        <v>0.1876990070091438</v>
       </c>
       <c r="E6">
-        <v>0.4594352268490454</v>
+        <v>0.4467767122034587</v>
       </c>
       <c r="F6">
-        <v>0.4662819963666962</v>
+        <v>0.3755215212754663</v>
       </c>
       <c r="G6">
-        <v>0.6619243984051622</v>
+        <v>0.5035791160854046</v>
       </c>
       <c r="H6">
-        <v>0.0207529213474566</v>
+        <v>0.01808750763478711</v>
       </c>
       <c r="I6">
-        <v>0.02472545668763892</v>
+        <v>0.01964454678698058</v>
       </c>
       <c r="J6">
-        <v>0.420874231957086</v>
+        <v>0.4021842671883604</v>
       </c>
       <c r="K6">
-        <v>0.5609084414227183</v>
+        <v>0.4344977238580086</v>
       </c>
       <c r="L6">
-        <v>0.8144398466820633</v>
+        <v>0.2565254174277314</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1021278764565743</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8228971082820067</v>
       </c>
       <c r="O6">
-        <v>23.87617487453855</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.85197962707798</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04530863987045208</v>
+        <v>0.02907716864408449</v>
       </c>
       <c r="D7">
-        <v>0.2256710420569021</v>
+        <v>0.1946660780133129</v>
       </c>
       <c r="E7">
-        <v>0.4805448935805359</v>
+        <v>0.4669123789957368</v>
       </c>
       <c r="F7">
-        <v>0.4752932008092543</v>
+        <v>0.3765163276782815</v>
       </c>
       <c r="G7">
-        <v>0.6889855177334283</v>
+        <v>0.524292434244316</v>
       </c>
       <c r="H7">
-        <v>0.02526168175718865</v>
+        <v>0.02198533458800403</v>
       </c>
       <c r="I7">
-        <v>0.02843127377934351</v>
+        <v>0.02229278499746812</v>
       </c>
       <c r="J7">
-        <v>0.4295879749902127</v>
+        <v>0.4001779921661068</v>
       </c>
       <c r="K7">
-        <v>0.5797746582445171</v>
+        <v>0.4434054422813176</v>
       </c>
       <c r="L7">
-        <v>0.8525240776555734</v>
+        <v>0.2571808434806897</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1086058663615859</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.8618455673435221</v>
       </c>
       <c r="O7">
-        <v>25.14363232351758</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.1144144526686</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06169170998798279</v>
+        <v>0.04389180512305124</v>
       </c>
       <c r="D8">
-        <v>0.2675336548375924</v>
+        <v>0.2268618447556747</v>
       </c>
       <c r="E8">
-        <v>0.5738514538463377</v>
+        <v>0.5565954032870195</v>
       </c>
       <c r="F8">
-        <v>0.5308874123411798</v>
+        <v>0.3963227067927022</v>
       </c>
       <c r="G8">
-        <v>0.8250251821426104</v>
+        <v>0.6226918491526021</v>
       </c>
       <c r="H8">
-        <v>0.05080223718652893</v>
+        <v>0.04405611693686219</v>
       </c>
       <c r="I8">
-        <v>0.04771217517650506</v>
+        <v>0.03582032171686755</v>
       </c>
       <c r="J8">
-        <v>0.4763644590593969</v>
+        <v>0.410705487526144</v>
       </c>
       <c r="K8">
-        <v>0.674090160550648</v>
+        <v>0.4930470677917995</v>
       </c>
       <c r="L8">
-        <v>1.020392029878565</v>
+        <v>0.26305641975447</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1435568165801371</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.033648328224615</v>
       </c>
       <c r="O8">
-        <v>30.88512731031886</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.82690238574457</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1023850556328938</v>
+        <v>0.08355536827285803</v>
       </c>
       <c r="D9">
-        <v>0.3500915174429338</v>
+        <v>0.2925742580644339</v>
       </c>
       <c r="E9">
-        <v>0.7580812547365241</v>
+        <v>0.7358885731273688</v>
       </c>
       <c r="F9">
-        <v>0.7099570306814229</v>
+        <v>0.4931416658825185</v>
       </c>
       <c r="G9">
-        <v>1.16248776953563</v>
+        <v>0.8601394242192839</v>
       </c>
       <c r="H9">
-        <v>0.1312587678759174</v>
+        <v>0.113308922761806</v>
       </c>
       <c r="I9">
-        <v>0.100863327244312</v>
+        <v>0.07213192223979892</v>
       </c>
       <c r="J9">
-        <v>0.602479445694172</v>
+        <v>0.4733538625579996</v>
       </c>
       <c r="K9">
-        <v>0.9023018404944025</v>
+        <v>0.6218374097613832</v>
       </c>
       <c r="L9">
-        <v>1.352666556096835</v>
+        <v>0.2804832656355671</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2362592338706335</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.375281230491169</v>
       </c>
       <c r="O9">
-        <v>43.0577257905116</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>42.89621455998247</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1411771715528332</v>
+        <v>0.1244711389976185</v>
       </c>
       <c r="D10">
-        <v>0.4165343159699262</v>
+        <v>0.3447726820225512</v>
       </c>
       <c r="E10">
-        <v>0.9155784932766693</v>
+        <v>0.889971873188685</v>
       </c>
       <c r="F10">
-        <v>0.8803360140022107</v>
+        <v>0.5819620031953718</v>
       </c>
       <c r="G10">
-        <v>1.44510317913452</v>
+        <v>1.082280631423728</v>
       </c>
       <c r="H10">
-        <v>0.2225148624805176</v>
+        <v>0.1910301942424715</v>
       </c>
       <c r="I10">
-        <v>0.1551691876071279</v>
+        <v>0.1082289933777902</v>
       </c>
       <c r="J10">
-        <v>0.7103140832165309</v>
+        <v>0.4801032948937234</v>
       </c>
       <c r="K10">
-        <v>1.085478981542636</v>
+        <v>0.713171536507744</v>
       </c>
       <c r="L10">
-        <v>1.642688861224826</v>
+        <v>0.2868150811548631</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3132006513214662</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.675255874575072</v>
       </c>
       <c r="O10">
-        <v>53.11285527050893</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>52.80553094027141</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1705013900713368</v>
+        <v>0.15404844284223</v>
       </c>
       <c r="D11">
-        <v>0.5075025237424882</v>
+        <v>0.4237925486059453</v>
       </c>
       <c r="E11">
-        <v>1.174229058906747</v>
+        <v>1.143068764885101</v>
       </c>
       <c r="F11">
-        <v>0.7788143718544944</v>
+        <v>0.4769299727960856</v>
       </c>
       <c r="G11">
-        <v>1.370109702345871</v>
+        <v>1.066357326517888</v>
       </c>
       <c r="H11">
-        <v>0.289061305186344</v>
+        <v>0.2498602845489835</v>
       </c>
       <c r="I11">
-        <v>0.1839634996167003</v>
+        <v>0.1271287309165059</v>
       </c>
       <c r="J11">
-        <v>0.6543268637656467</v>
+        <v>0.3459836404539516</v>
       </c>
       <c r="K11">
-        <v>1.021961026110077</v>
+        <v>0.63990488366818</v>
       </c>
       <c r="L11">
-        <v>2.140387765646039</v>
+        <v>0.2475942894243346</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3050317965487466</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.177841917331136</v>
       </c>
       <c r="O11">
-        <v>58.11354385594012</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>57.70779273425222</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1890894199265887</v>
+        <v>0.1721170704104615</v>
       </c>
       <c r="D12">
-        <v>0.5775883156813677</v>
+        <v>0.4880672984165528</v>
       </c>
       <c r="E12">
-        <v>1.380159424130639</v>
+        <v>1.345248487980115</v>
       </c>
       <c r="F12">
-        <v>0.6704302514339844</v>
+        <v>0.389439574858784</v>
       </c>
       <c r="G12">
-        <v>1.257524426618119</v>
+        <v>1.000153414956742</v>
       </c>
       <c r="H12">
-        <v>0.3489384890642668</v>
+        <v>0.3064126555289874</v>
       </c>
       <c r="I12">
-        <v>0.1961799996396856</v>
+        <v>0.135119215665819</v>
       </c>
       <c r="J12">
-        <v>0.5891990485601184</v>
+        <v>0.2675314434621328</v>
       </c>
       <c r="K12">
-        <v>0.9379266612387056</v>
+        <v>0.5722087400145739</v>
       </c>
       <c r="L12">
-        <v>2.539870267362062</v>
+        <v>0.2186170054361583</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2864189729589128</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.577847533009788</v>
       </c>
       <c r="O12">
-        <v>60.10592311906714</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>59.65563162154638</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1976644951960722</v>
+        <v>0.179585676055364</v>
       </c>
       <c r="D13">
-        <v>0.6330370640816909</v>
+        <v>0.5444495636228055</v>
       </c>
       <c r="E13">
-        <v>1.553111143865564</v>
+        <v>1.516783117883051</v>
       </c>
       <c r="F13">
-        <v>0.5379361658988202</v>
+        <v>0.3014281691779388</v>
       </c>
       <c r="G13">
-        <v>1.094329863665578</v>
+        <v>0.8725649735055185</v>
       </c>
       <c r="H13">
-        <v>0.4010377385243515</v>
+        <v>0.3594762869554273</v>
       </c>
       <c r="I13">
-        <v>0.1939096848538613</v>
+        <v>0.1339328746894344</v>
       </c>
       <c r="J13">
-        <v>0.5060844606124846</v>
+        <v>0.2268236709541185</v>
       </c>
       <c r="K13">
-        <v>0.8219657265012046</v>
+        <v>0.499375997837376</v>
       </c>
       <c r="L13">
-        <v>2.879963399164211</v>
+        <v>0.1937210624942338</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2560892381190172</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.914455257564413</v>
       </c>
       <c r="O13">
-        <v>59.67900154061664</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>59.24186235748039</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1988868644475303</v>
+        <v>0.1798864505921252</v>
       </c>
       <c r="D14">
-        <v>0.6649219868884302</v>
+        <v>0.5804773697990413</v>
       </c>
       <c r="E14">
-        <v>1.659702037390403</v>
+        <v>1.623770983933667</v>
       </c>
       <c r="F14">
-        <v>0.4371341686199628</v>
+        <v>0.2398415215136396</v>
       </c>
       <c r="G14">
-        <v>0.9589943767694109</v>
+        <v>0.7586255359431959</v>
       </c>
       <c r="H14">
-        <v>0.4368138982008105</v>
+        <v>0.3978051576563928</v>
       </c>
       <c r="I14">
-        <v>0.1858388169991336</v>
+        <v>0.1290028989142167</v>
       </c>
       <c r="J14">
-        <v>0.4405737821635114</v>
+        <v>0.2113471083511342</v>
       </c>
       <c r="K14">
-        <v>0.7270651643278754</v>
+        <v>0.4452957221607434</v>
       </c>
       <c r="L14">
-        <v>3.09275805399227</v>
+        <v>0.1776039960457894</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2295248457815546</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3.123079239490323</v>
       </c>
       <c r="O14">
-        <v>58.28977653985277</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>57.88690991851792</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1964368112634673</v>
+        <v>0.1771469542401611</v>
       </c>
       <c r="D15">
-        <v>0.6680898548411278</v>
+        <v>0.5861779511754719</v>
       </c>
       <c r="E15">
-        <v>1.675064490859427</v>
+        <v>1.639855061973478</v>
       </c>
       <c r="F15">
-        <v>0.4057212395369518</v>
+        <v>0.22211570005895</v>
       </c>
       <c r="G15">
-        <v>0.9136365527566994</v>
+        <v>0.717936170734788</v>
       </c>
       <c r="H15">
-        <v>0.4404709663187703</v>
+        <v>0.4029832764620949</v>
       </c>
       <c r="I15">
-        <v>0.1807892352809066</v>
+        <v>0.1258687419151618</v>
       </c>
       <c r="J15">
-        <v>0.4200152310991996</v>
+        <v>0.2121824520699676</v>
       </c>
       <c r="K15">
-        <v>0.6957618436677677</v>
+        <v>0.4291974693049383</v>
       </c>
       <c r="L15">
-        <v>3.125344208513042</v>
+        <v>0.1737621413447386</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2199518241462144</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>3.153995223683467</v>
       </c>
       <c r="O15">
-        <v>57.44730746541865</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>57.06384061548601</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1734941611052108</v>
+        <v>0.152149182633984</v>
       </c>
       <c r="D16">
-        <v>0.6242736059034826</v>
+        <v>0.5543491528163429</v>
       </c>
       <c r="E16">
-        <v>1.561275319088836</v>
+        <v>1.530936397662671</v>
       </c>
       <c r="F16">
-        <v>0.344495569536214</v>
+        <v>0.1973028360956661</v>
       </c>
       <c r="G16">
-        <v>0.8105063160081585</v>
+        <v>0.6108308191793412</v>
       </c>
       <c r="H16">
-        <v>0.3770877783666009</v>
+        <v>0.3475217381382407</v>
       </c>
       <c r="I16">
-        <v>0.1526778836436362</v>
+        <v>0.1077380325686219</v>
       </c>
       <c r="J16">
-        <v>0.3838433382867237</v>
+        <v>0.256615199894739</v>
       </c>
       <c r="K16">
-        <v>0.6324400379495216</v>
+        <v>0.4099262229509577</v>
       </c>
       <c r="L16">
-        <v>2.910605119973383</v>
+        <v>0.1775173781211166</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1942824922458328</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.934020360065801</v>
       </c>
       <c r="O16">
-        <v>52.77718458188622</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>52.48721842871191</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1561712351272675</v>
+        <v>0.1342092366220342</v>
       </c>
       <c r="D17">
-        <v>0.5741226988750441</v>
+        <v>0.5097669843337087</v>
       </c>
       <c r="E17">
-        <v>1.418483763788259</v>
+        <v>1.390865805720949</v>
       </c>
       <c r="F17">
-        <v>0.3530634669139872</v>
+        <v>0.2127059825398945</v>
       </c>
       <c r="G17">
-        <v>0.8054244629909135</v>
+        <v>0.5941954434655514</v>
       </c>
       <c r="H17">
-        <v>0.310827946958625</v>
+        <v>0.2854067774555915</v>
       </c>
       <c r="I17">
-        <v>0.1367274684883117</v>
+        <v>0.09722138889468468</v>
       </c>
       <c r="J17">
-        <v>0.3918173956955684</v>
+        <v>0.2958525478538405</v>
       </c>
       <c r="K17">
-        <v>0.6351120121761227</v>
+        <v>0.4231739348575303</v>
       </c>
       <c r="L17">
-        <v>2.634966116037333</v>
+        <v>0.1887711687237115</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1886637701916385</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.656879530317298</v>
       </c>
       <c r="O17">
-        <v>50.04189501761937</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>49.79732038103094</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.142104174129372</v>
+        <v>0.1201228403170767</v>
       </c>
       <c r="D18">
-        <v>0.5159973707376366</v>
+        <v>0.4536751326928083</v>
       </c>
       <c r="E18">
-        <v>1.242772421578621</v>
+        <v>1.216830093828008</v>
       </c>
       <c r="F18">
-        <v>0.4253978357085728</v>
+        <v>0.2701698833838577</v>
       </c>
       <c r="G18">
-        <v>0.8857037418750053</v>
+        <v>0.6475851949119829</v>
       </c>
       <c r="H18">
-        <v>0.2427004268789545</v>
+        <v>0.2193362876169971</v>
       </c>
       <c r="I18">
-        <v>0.127937142168256</v>
+        <v>0.09116467004930051</v>
       </c>
       <c r="J18">
-        <v>0.4395729625683771</v>
+        <v>0.347444109078225</v>
       </c>
       <c r="K18">
-        <v>0.6970088072773066</v>
+        <v>0.4713075742364055</v>
       </c>
       <c r="L18">
-        <v>2.291237076061321</v>
+        <v>0.2102438217758902</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2009397197677529</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.31372310084592</v>
       </c>
       <c r="O18">
-        <v>48.50956998298642</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>48.28677260215738</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1304536556632456</v>
+        <v>0.1100938479837552</v>
       </c>
       <c r="D19">
-        <v>0.4564442759667884</v>
+        <v>0.3944909653183117</v>
       </c>
       <c r="E19">
-        <v>1.063236686284398</v>
+        <v>1.038553834350338</v>
       </c>
       <c r="F19">
-        <v>0.5480052811753566</v>
+        <v>0.3621484594541826</v>
       </c>
       <c r="G19">
-        <v>1.025941515973571</v>
+        <v>0.7486932017721273</v>
       </c>
       <c r="H19">
-        <v>0.1937061369185216</v>
+        <v>0.1707498231132902</v>
       </c>
       <c r="I19">
-        <v>0.1252865121143021</v>
+        <v>0.08927144563486866</v>
       </c>
       <c r="J19">
-        <v>0.5141784457408818</v>
+        <v>0.408454024773917</v>
       </c>
       <c r="K19">
-        <v>0.7971428751406364</v>
+        <v>0.5413590044359893</v>
       </c>
       <c r="L19">
-        <v>1.940909115803748</v>
+        <v>0.2374616700240466</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2255108322972106</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.964974204762825</v>
       </c>
       <c r="O19">
-        <v>48.00196323624147</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>47.78431752496215</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1279980372757024</v>
+        <v>0.1119416973762952</v>
       </c>
       <c r="D20">
-        <v>0.3963924661529177</v>
+        <v>0.3305011693815771</v>
       </c>
       <c r="E20">
-        <v>0.8733867547836809</v>
+        <v>0.8494122330723712</v>
       </c>
       <c r="F20">
-        <v>0.8167007987909756</v>
+        <v>0.5508632927440189</v>
       </c>
       <c r="G20">
-        <v>1.346486088030218</v>
+        <v>0.9929842131171682</v>
       </c>
       <c r="H20">
-        <v>0.1948817764543875</v>
+        <v>0.1677503130746554</v>
       </c>
       <c r="I20">
-        <v>0.1392957582101877</v>
+        <v>0.09823000405004656</v>
       </c>
       <c r="J20">
-        <v>0.6700306779839309</v>
+        <v>0.4958833456325067</v>
       </c>
       <c r="K20">
-        <v>1.017324995020928</v>
+        <v>0.6808512708961345</v>
       </c>
       <c r="L20">
-        <v>1.568057488452837</v>
+        <v>0.2825563529856652</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2888314987976273</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.597053710842658</v>
       </c>
       <c r="O20">
-        <v>50.35108332000419</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>50.09259548373547</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1612112984308283</v>
+        <v>0.149012499330909</v>
       </c>
       <c r="D21">
-        <v>0.4377272665505529</v>
+        <v>0.3527458126936551</v>
       </c>
       <c r="E21">
-        <v>0.9662388017128336</v>
+        <v>0.9369592646783929</v>
       </c>
       <c r="F21">
-        <v>1.018672645377805</v>
+        <v>0.6380076826477961</v>
       </c>
       <c r="G21">
-        <v>1.638158030479644</v>
+        <v>1.28656472407738</v>
       </c>
       <c r="H21">
-        <v>0.2835890861335197</v>
+        <v>0.2419627414113401</v>
       </c>
       <c r="I21">
-        <v>0.1890080379045225</v>
+        <v>0.129926986389532</v>
       </c>
       <c r="J21">
-        <v>0.7892989847229899</v>
+        <v>0.3951049392638311</v>
       </c>
       <c r="K21">
-        <v>1.206364940344287</v>
+        <v>0.7509124335652899</v>
       </c>
       <c r="L21">
-        <v>1.737120583662829</v>
+        <v>0.2855598489242865</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3515581570107003</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.778684281600135</v>
       </c>
       <c r="O21">
-        <v>58.71501303177484</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>58.28627561865471</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1882352044350242</v>
+        <v>0.1787548813817752</v>
       </c>
       <c r="D22">
-        <v>0.469522859916907</v>
+        <v>0.371489457264488</v>
       </c>
       <c r="E22">
-        <v>1.03964167067997</v>
+        <v>1.00712215946831</v>
       </c>
       <c r="F22">
-        <v>1.17169230911108</v>
+        <v>0.7053726807658478</v>
       </c>
       <c r="G22">
-        <v>1.850756417765069</v>
+        <v>1.505404987388857</v>
       </c>
       <c r="H22">
-        <v>0.356875662177103</v>
+        <v>0.3026587788316273</v>
       </c>
       <c r="I22">
-        <v>0.2280895550653037</v>
+        <v>0.1543383225456214</v>
       </c>
       <c r="J22">
-        <v>0.8768721368079184</v>
+        <v>0.3301728452249648</v>
       </c>
       <c r="K22">
-        <v>1.343431135432311</v>
+        <v>0.8007052218371555</v>
       </c>
       <c r="L22">
-        <v>1.871981047156169</v>
+        <v>0.287403273955654</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3972594063305976</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.922967551324035</v>
       </c>
       <c r="O22">
-        <v>64.76693060484877</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>64.17036540068045</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1741846937931868</v>
+        <v>0.1624391467575439</v>
       </c>
       <c r="D23">
-        <v>0.4536380496317918</v>
+        <v>0.3635144501458569</v>
       </c>
       <c r="E23">
-        <v>1.0006316155646</v>
+        <v>0.9702505860139894</v>
       </c>
       <c r="F23">
-        <v>1.09159817131588</v>
+        <v>0.6752815509762939</v>
       </c>
       <c r="G23">
-        <v>1.741065751200949</v>
+        <v>1.381618412190136</v>
       </c>
       <c r="H23">
-        <v>0.3161477980454843</v>
+        <v>0.2690858221027549</v>
       </c>
       <c r="I23">
-        <v>0.2065882587226771</v>
+        <v>0.1409219959297268</v>
       </c>
       <c r="J23">
-        <v>0.832148534226377</v>
+        <v>0.3815957905992775</v>
       </c>
       <c r="K23">
-        <v>1.274803322742343</v>
+        <v>0.7820064474744939</v>
       </c>
       <c r="L23">
-        <v>1.798918414135557</v>
+        <v>0.2893042327672646</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3758400162494056</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.844316875914785</v>
       </c>
       <c r="O23">
-        <v>61.46999338160663</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>60.97103326196765</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1280039323518665</v>
+        <v>0.1112969453143968</v>
       </c>
       <c r="D24">
-        <v>0.3921713190462981</v>
+        <v>0.3262690837303239</v>
       </c>
       <c r="E24">
-        <v>0.8570774744796665</v>
+        <v>0.8332443105985732</v>
       </c>
       <c r="F24">
-        <v>0.8391491737104815</v>
+        <v>0.5682665628516119</v>
       </c>
       <c r="G24">
-        <v>1.37222669440888</v>
+        <v>1.011708509659258</v>
       </c>
       <c r="H24">
-        <v>0.1943406139255801</v>
+        <v>0.1672533389962641</v>
       </c>
       <c r="I24">
-        <v>0.1387541681149242</v>
+        <v>0.09764409344854386</v>
       </c>
       <c r="J24">
-        <v>0.6835039823254192</v>
+        <v>0.5076497625469187</v>
       </c>
       <c r="K24">
-        <v>1.037573729635128</v>
+        <v>0.6957062557226337</v>
       </c>
       <c r="L24">
-        <v>1.534748159452079</v>
+        <v>0.2882867945776795</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2941774983259222</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.563784648061414</v>
       </c>
       <c r="O24">
-        <v>50.22613269554506</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>49.96880459970259</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08902360624583139</v>
+        <v>0.07087153915613165</v>
       </c>
       <c r="D25">
-        <v>0.3261805518338008</v>
+        <v>0.2740620780382272</v>
       </c>
       <c r="E25">
-        <v>0.7072972696045383</v>
+        <v>0.6866008974128874</v>
       </c>
       <c r="F25">
-        <v>0.6458822057683022</v>
+        <v>0.4577286263255473</v>
       </c>
       <c r="G25">
-        <v>1.052684490695867</v>
+        <v>0.7768304941588724</v>
       </c>
       <c r="H25">
-        <v>0.1049015394154733</v>
+        <v>0.09073868522986805</v>
       </c>
       <c r="I25">
-        <v>0.08429706287725391</v>
+        <v>0.06113901976314651</v>
       </c>
       <c r="J25">
-        <v>0.5593217372828576</v>
+        <v>0.4610012365991167</v>
       </c>
       <c r="K25">
-        <v>0.8266363364874891</v>
+        <v>0.5797717596488141</v>
       </c>
       <c r="L25">
-        <v>1.262526375955872</v>
+        <v>0.2738744438603433</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2068211384880954</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.282002667378265</v>
       </c>
       <c r="O25">
-        <v>39.61939447893224</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>39.49443366084012</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
